--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_2_26.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_2_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1792222.705523259</v>
+        <v>1754186.089341983</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>421727.3537779179</v>
+        <v>421727.3537779181</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7956703.636481811</v>
+        <v>7956703.636481809</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8030214.397838729</v>
+        <v>8030214.39783873</v>
       </c>
     </row>
     <row r="11">
@@ -661,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>226.7344121026524</v>
+        <v>7.293863480540836</v>
       </c>
       <c r="G2" t="n">
         <v>14.85476540383092</v>
@@ -679,10 +679,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.0551826969123</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -737,25 +737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>156.1018874898255</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>59.33202238395851</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I3" t="n">
         <v>86.50354346547167</v>
@@ -788,16 +788,16 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S3" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -834,16 +834,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>75.29987199599606</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>92.44449132506539</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -910,61 +910,61 @@
         <v>7.293863480540836</v>
       </c>
       <c r="G5" t="n">
+        <v>14.85476540383092</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>205.224307868124</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.6592771345624158</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>13.55696361942517</v>
+      </c>
+      <c r="X5" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="H5" t="n">
+      <c r="Y5" t="n">
         <v>274.2838073416025</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>141.8508227008771</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -977,25 +977,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>22.14264730653983</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,22 +1022,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S6" t="n">
-        <v>159.5028127661658</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T6" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1077,10 +1077,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1098,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>75.29987199599606</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>14.85476540383092</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>219.4405486221115</v>
+        <v>145.3493044047353</v>
       </c>
       <c r="Y8" t="n">
         <v>274.2838073416025</v>
@@ -1211,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>114.7736570458744</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,19 +1262,19 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>159.502812766166</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1302,10 +1302,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>32.75410523180384</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,10 +1314,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>84.37801704792682</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>356.6047327545984</v>
@@ -1381,16 +1381,16 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F11" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>413.6097194764729</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I11" t="n">
-        <v>148.6837087419612</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,13 +1417,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>151.774299207321</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1463,13 +1463,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G12" t="n">
-        <v>135.3570519053243</v>
+        <v>94.12953483606209</v>
       </c>
       <c r="H12" t="n">
-        <v>22.34031300679495</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>50.42797305210065</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1572,25 +1572,25 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>32.99521853687121</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>148.2796428708918</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>212.6245410698995</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>225.9462130081922</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>2.696742040683396</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>49.7823671951049</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D14" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>383.1180357552875</v>
@@ -1624,10 +1624,10 @@
         <v>413.6097194764729</v>
       </c>
       <c r="H14" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1672,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>284.8028510873082</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="15">
@@ -1703,10 +1703,10 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H15" t="n">
-        <v>104.0288287853823</v>
+        <v>22.34031300679495</v>
       </c>
       <c r="I15" t="n">
-        <v>63.56783007605711</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>53.33473024000174</v>
       </c>
       <c r="S15" t="n">
-        <v>64.66640004843207</v>
+        <v>156.5880156630749</v>
       </c>
       <c r="T15" t="n">
         <v>195.6974464808964</v>
@@ -1776,19 +1776,19 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>112.2252571302024</v>
+        <v>50.42797305210065</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3311041893321</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.6686349500177</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>136.9633875020681</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>49.3539737549178</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1821,13 +1821,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>49.7823671951049</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>407.2938634805408</v>
@@ -1861,10 +1861,10 @@
         <v>413.6097194764729</v>
       </c>
       <c r="H17" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,25 +1891,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>250.0163817270037</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1940,10 +1940,10 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H18" t="n">
-        <v>22.34031300679495</v>
+        <v>104.0288287853823</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>53.33473024000173</v>
+        <v>53.33473024000174</v>
       </c>
       <c r="S18" t="n">
         <v>156.5880156630749</v>
       </c>
       <c r="T18" t="n">
-        <v>195.6974464808964</v>
+        <v>50.4411006262517</v>
       </c>
       <c r="U18" t="n">
         <v>224.6133508632724</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C19" t="n">
         <v>167.3365529312023</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>56.3734392368837</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2046,13 +2046,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>16.44090359312706</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>212.6245410698995</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2067,10 +2067,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="20">
@@ -2089,19 +2089,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H20" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>63.64170646647294</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>177.493467653868</v>
@@ -2137,19 +2137,19 @@
         <v>217.5149286494106</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>178.9887398581737</v>
+        <v>107.3093834334401</v>
       </c>
       <c r="W20" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="21">
@@ -2174,13 +2174,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G21" t="n">
-        <v>94.12953483606209</v>
+        <v>53.66853612673689</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>104.0288287853823</v>
       </c>
       <c r="I21" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>47.98473017938051</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2283,28 +2283,28 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>32.99521853687121</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>148.2796428708918</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>225.9462130081922</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>110.3094207068133</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F23" t="n">
-        <v>241.1610400919451</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G23" t="n">
         <v>413.6097194764729</v>
       </c>
       <c r="H23" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>167.6131353562305</v>
       </c>
       <c r="T23" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>104.0288287853823</v>
       </c>
       <c r="I24" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>53.33473024000174</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>156.5880156630749</v>
+        <v>128.2342301244892</v>
       </c>
       <c r="T24" t="n">
         <v>195.6974464808964</v>
@@ -2462,7 +2462,7 @@
         <v>249.98934675</v>
       </c>
       <c r="X24" t="n">
-        <v>59.20528375383371</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y24" t="n">
         <v>203.671151418586</v>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,13 +2493,13 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>3.157795208937534</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>136.9633875020681</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>49.35397375491781</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2532,10 +2532,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>83.51342957218336</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W25" t="n">
         <v>286.0925768874155</v>
@@ -2566,16 +2566,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>185.2603433225598</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.6097194764729</v>
+        <v>287.20164900092</v>
       </c>
       <c r="H26" t="n">
         <v>325.3930767845979</v>
       </c>
       <c r="I26" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,10 +2608,10 @@
         <v>177.493467653868</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2648,13 +2648,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G27" t="n">
-        <v>135.3570519053243</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>22.34031300679495</v>
+        <v>104.0288287853823</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>53.66853612673688</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,10 +2715,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.3311041893321</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>143.6597934514068</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>225.9462130081922</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>138.8691338914843</v>
       </c>
       <c r="V28" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2800,19 +2800,19 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E29" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I29" t="n">
-        <v>120.0983041270709</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,28 +2839,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>63.64170646647294</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>241.8898801092332</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W29" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="30">
@@ -2885,7 +2885,7 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G30" t="n">
-        <v>135.3570519053243</v>
+        <v>43.43543629068183</v>
       </c>
       <c r="H30" t="n">
         <v>104.0288287853823</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>53.33473024000174</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>156.5880156630749</v>
@@ -2933,7 +2933,7 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W30" t="n">
-        <v>104.7330008953557</v>
+        <v>249.98934675</v>
       </c>
       <c r="X30" t="n">
         <v>204.4616296084783</v>
@@ -2952,19 +2952,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>95.60663935223715</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>212.6245410698995</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>83.58419887257701</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F32" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G32" t="n">
-        <v>413.6097194764729</v>
+        <v>97.70778362415464</v>
       </c>
       <c r="H32" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>63.64170646647294</v>
       </c>
       <c r="S32" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>117.9287471893071</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="33">
@@ -3125,10 +3125,10 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>22.34031300679495</v>
       </c>
       <c r="I33" t="n">
-        <v>22.34031300679495</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3195,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3311041893321</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>92.30165282694577</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>136.9633875020681</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3231,16 +3231,16 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>32.99521853687121</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>77.66481953889517</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.9462130081922</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3268,25 +3268,25 @@
         <v>383.716409991395</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D35" t="n">
-        <v>61.12256411473142</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G35" t="n">
-        <v>413.6097194764729</v>
+        <v>255.2314038119984</v>
       </c>
       <c r="H35" t="n">
         <v>325.3930767845979</v>
       </c>
       <c r="I35" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3325,13 +3325,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3353,7 +3353,7 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E36" t="n">
-        <v>10.77708785252926</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F36" t="n">
         <v>143.5062320835493</v>
@@ -3395,7 +3395,7 @@
         <v>53.33473024000174</v>
       </c>
       <c r="S36" t="n">
-        <v>156.5880156630749</v>
+        <v>11.33166980843018</v>
       </c>
       <c r="T36" t="n">
         <v>195.6974464808964</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3435,13 +3435,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G37" t="n">
-        <v>21.17883570055999</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>156.6686349500177</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>225.9462130081922</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>77.55097075828157</v>
       </c>
       <c r="Y37" t="n">
         <v>218.7486738677682</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C38" t="n">
         <v>366.9850956789426</v>
@@ -3517,10 +3517,10 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G38" t="n">
-        <v>413.6097194764729</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>145.7130469821203</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3562,16 +3562,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>170.1185002294423</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3599,10 +3599,10 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H39" t="n">
-        <v>104.0288287853823</v>
+        <v>22.34031300679495</v>
       </c>
       <c r="I39" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>53.33473024000174</v>
       </c>
       <c r="S39" t="n">
-        <v>64.66640004843207</v>
+        <v>156.5880156630749</v>
       </c>
       <c r="T39" t="n">
         <v>195.6974464808964</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.3311041893321</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>156.6686349500177</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3714,13 +3714,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>225.9462130081922</v>
+        <v>12.52081080016639</v>
       </c>
       <c r="U40" t="n">
-        <v>143.6597934514067</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V40" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>244.626539571303</v>
       </c>
       <c r="F41" t="n">
-        <v>204.3271470791597</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.6097194764729</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3821,7 +3821,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C42" t="n">
-        <v>89.33706814881398</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D42" t="n">
         <v>146.1124235746456</v>
@@ -3839,7 +3839,7 @@
         <v>104.0288287853823</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>53.33473024000173</v>
+        <v>53.33473024000174</v>
       </c>
       <c r="S42" t="n">
         <v>156.5880156630749</v>
@@ -3884,7 +3884,7 @@
         <v>249.98934675</v>
       </c>
       <c r="X42" t="n">
-        <v>204.4616296084783</v>
+        <v>59.20528375383371</v>
       </c>
       <c r="Y42" t="n">
         <v>203.671151418586</v>
@@ -3906,13 +3906,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>6.76190710554451</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3311041893321</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3921,7 +3921,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>49.3539737549178</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3948,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>212.6245410698995</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V43" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>123.8960088696167</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3985,19 +3985,19 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>280.7699962949512</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,16 +4024,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S44" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>168.728396480712</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4070,13 +4070,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
-        <v>135.3570519053243</v>
+        <v>53.66853612673689</v>
       </c>
       <c r="H45" t="n">
         <v>104.0288287853823</v>
       </c>
       <c r="I45" t="n">
-        <v>63.56783007605711</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>53.33473024000173</v>
+        <v>53.33473024000174</v>
       </c>
       <c r="S45" t="n">
-        <v>11.33166980843063</v>
+        <v>156.5880156630749</v>
       </c>
       <c r="T45" t="n">
         <v>195.6974464808964</v>
@@ -4140,10 +4140,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4191,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.0218075870219</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>50.42797305210077</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>100.4218069065103</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1097.13522936641</v>
+        <v>197.5619861184862</v>
       </c>
       <c r="C2" t="n">
-        <v>820.0808785163064</v>
+        <v>197.5619861184862</v>
       </c>
       <c r="D2" t="n">
-        <v>543.0265276662028</v>
+        <v>197.5619861184862</v>
       </c>
       <c r="E2" t="n">
-        <v>265.9721768160992</v>
+        <v>197.5619861184862</v>
       </c>
       <c r="F2" t="n">
-        <v>36.94751812655136</v>
+        <v>190.1944472492531</v>
       </c>
       <c r="G2" t="n">
-        <v>21.9427045873282</v>
+        <v>175.1896337100299</v>
       </c>
       <c r="H2" t="n">
-        <v>21.9427045873282</v>
+        <v>175.1896337100299</v>
       </c>
       <c r="I2" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J2" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="K2" t="n">
-        <v>143.241092649432</v>
+        <v>143.2410926494321</v>
       </c>
       <c r="L2" t="n">
-        <v>345.6915471007955</v>
+        <v>345.6915471007956</v>
       </c>
       <c r="M2" t="n">
         <v>586.1689795623909</v>
@@ -4354,28 +4354,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R2" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S2" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="T2" t="n">
-        <v>1097.13522936641</v>
+        <v>728.6342799752003</v>
       </c>
       <c r="U2" t="n">
-        <v>1097.13522936641</v>
+        <v>474.6163369685898</v>
       </c>
       <c r="V2" t="n">
-        <v>1097.13522936641</v>
+        <v>197.5619861184862</v>
       </c>
       <c r="W2" t="n">
-        <v>1097.13522936641</v>
+        <v>197.5619861184862</v>
       </c>
       <c r="X2" t="n">
-        <v>1097.13522936641</v>
+        <v>197.5619861184862</v>
       </c>
       <c r="Y2" t="n">
-        <v>1097.13522936641</v>
+        <v>197.5619861184862</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>169.25135696049</v>
+        <v>843.80506042609</v>
       </c>
       <c r="C3" t="n">
-        <v>169.25135696049</v>
+        <v>671.0519453479071</v>
       </c>
       <c r="D3" t="n">
-        <v>169.25135696049</v>
+        <v>523.463638706851</v>
       </c>
       <c r="E3" t="n">
-        <v>169.25135696049</v>
+        <v>365.8541097097058</v>
       </c>
       <c r="F3" t="n">
-        <v>169.25135696049</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="G3" t="n">
-        <v>169.25135696049</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="H3" t="n">
         <v>109.3200212191178</v>
@@ -4418,16 +4418,16 @@
         <v>416.655578933882</v>
       </c>
       <c r="M3" t="n">
-        <v>416.655578933882</v>
+        <v>688.1965482020685</v>
       </c>
       <c r="N3" t="n">
-        <v>630.6851405540922</v>
+        <v>817.386591515115</v>
       </c>
       <c r="O3" t="n">
-        <v>898.564759531413</v>
+        <v>817.386591515115</v>
       </c>
       <c r="P3" t="n">
-        <v>1097.13522936641</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q3" t="n">
         <v>1097.13522936641</v>
@@ -4436,25 +4436,25 @@
         <v>1001.483734658237</v>
       </c>
       <c r="S3" t="n">
-        <v>830.8154377838487</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="T3" t="n">
-        <v>630.4290419169106</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="U3" t="n">
-        <v>403.5026004348891</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="V3" t="n">
-        <v>169.25135696049</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="W3" t="n">
-        <v>169.25135696049</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="X3" t="n">
-        <v>169.25135696049</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="Y3" t="n">
-        <v>169.25135696049</v>
+        <v>1001.483734658237</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="C4" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="D4" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="E4" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="F4" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="G4" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="H4" t="n">
-        <v>21.9427045873282</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="I4" t="n">
-        <v>21.9427045873282</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="J4" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="K4" t="n">
         <v>21.9427045873282</v>
@@ -4515,25 +4515,25 @@
         <v>202.6630345283467</v>
       </c>
       <c r="S4" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T4" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U4" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V4" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W4" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="X4" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Y4" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>953.8515700725947</v>
+        <v>529.3326250203188</v>
       </c>
       <c r="C5" t="n">
-        <v>860.473296006872</v>
+        <v>529.3326250203188</v>
       </c>
       <c r="D5" t="n">
-        <v>860.473296006872</v>
+        <v>529.3326250203188</v>
       </c>
       <c r="E5" t="n">
-        <v>583.4189451567685</v>
+        <v>252.2782741702153</v>
       </c>
       <c r="F5" t="n">
-        <v>576.0514062875353</v>
+        <v>244.9107353009821</v>
       </c>
       <c r="G5" t="n">
-        <v>298.9970554374318</v>
+        <v>229.9059217617589</v>
       </c>
       <c r="H5" t="n">
-        <v>21.9427045873282</v>
+        <v>229.9059217617589</v>
       </c>
       <c r="I5" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J5" t="n">
         <v>21.9427045873282</v>
@@ -4591,28 +4591,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R5" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S5" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T5" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U5" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V5" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W5" t="n">
-        <v>953.8515700725947</v>
+        <v>1083.441326720526</v>
       </c>
       <c r="X5" t="n">
-        <v>953.8515700725947</v>
+        <v>806.3869758704224</v>
       </c>
       <c r="Y5" t="n">
-        <v>953.8515700725947</v>
+        <v>529.3326250203188</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.9427045873282</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="C6" t="n">
-        <v>21.9427045873282</v>
+        <v>808.4491273732024</v>
       </c>
       <c r="D6" t="n">
-        <v>21.9427045873282</v>
+        <v>660.8608207321463</v>
       </c>
       <c r="E6" t="n">
-        <v>21.9427045873282</v>
+        <v>503.251291735001</v>
       </c>
       <c r="F6" t="n">
-        <v>21.9427045873282</v>
+        <v>358.2955017516178</v>
       </c>
       <c r="G6" t="n">
-        <v>21.9427045873282</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="H6" t="n">
-        <v>21.9427045873282</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="I6" t="n">
         <v>21.9427045873282</v>
@@ -4652,46 +4652,46 @@
         <v>168.577974491964</v>
       </c>
       <c r="L6" t="n">
-        <v>359.1441712859057</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M6" t="n">
-        <v>359.1441712859057</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="N6" t="n">
-        <v>630.6851405540922</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="O6" t="n">
-        <v>898.564759531413</v>
+        <v>817.386591515115</v>
       </c>
       <c r="P6" t="n">
-        <v>1097.13522936641</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q6" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R6" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="S6" t="n">
-        <v>936.0212770773536</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="T6" t="n">
-        <v>735.6348812104155</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="U6" t="n">
-        <v>508.7084397283941</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="V6" t="n">
-        <v>274.4571962539949</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="W6" t="n">
-        <v>21.9427045873282</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="X6" t="n">
-        <v>21.9427045873282</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="Y6" t="n">
-        <v>21.9427045873282</v>
+        <v>830.8154377838487</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.9427045873282</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="C7" t="n">
-        <v>21.9427045873282</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="D7" t="n">
-        <v>21.9427045873282</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="E7" t="n">
-        <v>21.9427045873282</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="F7" t="n">
-        <v>21.9427045873282</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="G7" t="n">
-        <v>21.9427045873282</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="H7" t="n">
-        <v>21.9427045873282</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="I7" t="n">
-        <v>21.9427045873282</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="J7" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="K7" t="n">
         <v>21.9427045873282</v>
@@ -4746,31 +4746,31 @@
         <v>202.6630345283467</v>
       </c>
       <c r="Q7" t="n">
-        <v>202.6630345283467</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="R7" t="n">
-        <v>202.6630345283467</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="S7" t="n">
-        <v>21.9427045873282</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="T7" t="n">
-        <v>21.9427045873282</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="U7" t="n">
-        <v>21.9427045873282</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="V7" t="n">
-        <v>21.9427045873282</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="W7" t="n">
-        <v>21.9427045873282</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="X7" t="n">
-        <v>21.9427045873282</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="Y7" t="n">
-        <v>21.9427045873282</v>
+        <v>126.6025577647144</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>44.31505699578452</v>
+        <v>322.0353443454461</v>
       </c>
       <c r="C8" t="n">
-        <v>44.31505699578452</v>
+        <v>322.0353443454461</v>
       </c>
       <c r="D8" t="n">
-        <v>44.31505699578452</v>
+        <v>322.0353443454461</v>
       </c>
       <c r="E8" t="n">
-        <v>44.31505699578452</v>
+        <v>322.0353443454461</v>
       </c>
       <c r="F8" t="n">
-        <v>36.94751812655136</v>
+        <v>314.6678054762129</v>
       </c>
       <c r="G8" t="n">
-        <v>21.9427045873282</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="H8" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="I8" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J8" t="n">
         <v>21.9427045873282</v>
@@ -4819,37 +4819,37 @@
         <v>815.0204133003604</v>
       </c>
       <c r="O8" t="n">
-        <v>984.9899813536999</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P8" t="n">
-        <v>1093.116282134285</v>
+        <v>1093.116282134284</v>
       </c>
       <c r="Q8" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R8" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S8" t="n">
-        <v>1097.13522936641</v>
+        <v>745.907174392252</v>
       </c>
       <c r="T8" t="n">
-        <v>1097.13522936641</v>
+        <v>745.907174392252</v>
       </c>
       <c r="U8" t="n">
-        <v>1097.13522936641</v>
+        <v>745.907174392252</v>
       </c>
       <c r="V8" t="n">
-        <v>820.0808785163065</v>
+        <v>745.907174392252</v>
       </c>
       <c r="W8" t="n">
-        <v>543.0265276662028</v>
+        <v>745.907174392252</v>
       </c>
       <c r="X8" t="n">
-        <v>321.3694078458881</v>
+        <v>599.0896951955497</v>
       </c>
       <c r="Y8" t="n">
-        <v>44.31505699578452</v>
+        <v>322.0353443454461</v>
       </c>
     </row>
     <row r="9">
@@ -4859,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>21.9427045873282</v>
+        <v>981.2022424513852</v>
       </c>
       <c r="C9" t="n">
-        <v>21.9427045873282</v>
+        <v>808.4491273732024</v>
       </c>
       <c r="D9" t="n">
-        <v>21.9427045873282</v>
+        <v>660.8608207321463</v>
       </c>
       <c r="E9" t="n">
-        <v>21.9427045873282</v>
+        <v>503.251291735001</v>
       </c>
       <c r="F9" t="n">
-        <v>21.9427045873282</v>
+        <v>358.2955017516178</v>
       </c>
       <c r="G9" t="n">
-        <v>21.9427045873282</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="H9" t="n">
-        <v>21.9427045873282</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="I9" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="J9" t="n">
-        <v>29.33601543381311</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K9" t="n">
-        <v>168.5779744919641</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L9" t="n">
-        <v>416.6555789338821</v>
+        <v>168.577974491964</v>
       </c>
       <c r="M9" t="n">
-        <v>416.6555789338821</v>
+        <v>359.1441712859057</v>
       </c>
       <c r="N9" t="n">
-        <v>630.6851405540924</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="O9" t="n">
-        <v>898.5647595314132</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P9" t="n">
         <v>1097.13522936641</v>
@@ -4910,25 +4910,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S9" t="n">
-        <v>936.0212770773536</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T9" t="n">
-        <v>735.6348812104155</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U9" t="n">
-        <v>508.7084397283941</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V9" t="n">
-        <v>274.4571962539949</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W9" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X9" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Y9" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
     </row>
     <row r="10">
@@ -4938,37 +4938,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>202.6630345283467</v>
+        <v>122.096671017389</v>
       </c>
       <c r="C10" t="n">
-        <v>202.6630345283467</v>
+        <v>122.096671017389</v>
       </c>
       <c r="D10" t="n">
-        <v>202.6630345283467</v>
+        <v>122.096671017389</v>
       </c>
       <c r="E10" t="n">
-        <v>202.6630345283467</v>
+        <v>122.096671017389</v>
       </c>
       <c r="F10" t="n">
-        <v>55.02765936692805</v>
+        <v>122.096671017389</v>
       </c>
       <c r="G10" t="n">
-        <v>21.9427045873282</v>
+        <v>122.096671017389</v>
       </c>
       <c r="H10" t="n">
-        <v>21.9427045873282</v>
+        <v>122.096671017389</v>
       </c>
       <c r="I10" t="n">
-        <v>21.9427045873282</v>
+        <v>122.096671017389</v>
       </c>
       <c r="J10" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="K10" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="L10" t="n">
-        <v>59.0292235140474</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M10" t="n">
         <v>108.7246574309869</v>
@@ -4983,31 +4983,31 @@
         <v>202.6630345283467</v>
       </c>
       <c r="Q10" t="n">
-        <v>202.6630345283467</v>
+        <v>122.096671017389</v>
       </c>
       <c r="R10" t="n">
-        <v>202.6630345283467</v>
+        <v>122.096671017389</v>
       </c>
       <c r="S10" t="n">
-        <v>202.6630345283467</v>
+        <v>122.096671017389</v>
       </c>
       <c r="T10" t="n">
-        <v>202.6630345283467</v>
+        <v>122.096671017389</v>
       </c>
       <c r="U10" t="n">
-        <v>202.6630345283467</v>
+        <v>122.096671017389</v>
       </c>
       <c r="V10" t="n">
-        <v>202.6630345283467</v>
+        <v>122.096671017389</v>
       </c>
       <c r="W10" t="n">
-        <v>202.6630345283467</v>
+        <v>122.096671017389</v>
       </c>
       <c r="X10" t="n">
-        <v>202.6630345283467</v>
+        <v>122.096671017389</v>
       </c>
       <c r="Y10" t="n">
-        <v>202.6630345283467</v>
+        <v>122.096671017389</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2147.979266221018</v>
+        <v>1544.373618628243</v>
       </c>
       <c r="C11" t="n">
-        <v>1777.287250383702</v>
+        <v>1544.373618628243</v>
       </c>
       <c r="D11" t="n">
-        <v>1417.080449621481</v>
+        <v>1184.166817866023</v>
       </c>
       <c r="E11" t="n">
-        <v>1030.092534717151</v>
+        <v>797.1789029616918</v>
       </c>
       <c r="F11" t="n">
-        <v>618.6845918075132</v>
+        <v>797.1789029616918</v>
       </c>
       <c r="G11" t="n">
-        <v>200.8969963767325</v>
+        <v>379.3913075309111</v>
       </c>
       <c r="H11" t="n">
-        <v>200.8969963767325</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I11" t="n">
         <v>50.71143199091319</v>
@@ -5065,28 +5065,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R11" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="S11" t="n">
-        <v>2535.571599545659</v>
+        <v>2292.00071659582</v>
       </c>
       <c r="T11" t="n">
-        <v>2535.571599545659</v>
+        <v>2072.288667455001</v>
       </c>
       <c r="U11" t="n">
-        <v>2535.571599545659</v>
+        <v>2072.288667455001</v>
       </c>
       <c r="V11" t="n">
-        <v>2535.571599545659</v>
+        <v>2072.288667455001</v>
       </c>
       <c r="W11" t="n">
-        <v>2535.571599545659</v>
+        <v>1918.981294518313</v>
       </c>
       <c r="X11" t="n">
-        <v>2535.571599545659</v>
+        <v>1544.373618628243</v>
       </c>
       <c r="Y11" t="n">
-        <v>2535.571599545659</v>
+        <v>1544.373618628243</v>
       </c>
     </row>
     <row r="12">
@@ -5111,10 +5111,10 @@
         <v>210.0016995789124</v>
       </c>
       <c r="G12" t="n">
-        <v>73.27740472504951</v>
+        <v>114.9213613606679</v>
       </c>
       <c r="H12" t="n">
-        <v>50.71143199091319</v>
+        <v>114.9213613606679</v>
       </c>
       <c r="I12" t="n">
         <v>50.71143199091319</v>
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>50.71143199091319</v>
+        <v>101.6487785081866</v>
       </c>
       <c r="C13" t="n">
-        <v>50.71143199091319</v>
+        <v>101.6487785081866</v>
       </c>
       <c r="D13" t="n">
-        <v>50.71143199091319</v>
+        <v>101.6487785081866</v>
       </c>
       <c r="E13" t="n">
         <v>50.71143199091319</v>
@@ -5220,31 +5220,31 @@
         <v>679.5420961591335</v>
       </c>
       <c r="Q13" t="n">
-        <v>646.2135925865364</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R13" t="n">
-        <v>496.4361755452314</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S13" t="n">
-        <v>281.6639118382623</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T13" t="n">
-        <v>53.43541385018935</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="U13" t="n">
-        <v>50.71143199091319</v>
+        <v>390.6311794045659</v>
       </c>
       <c r="V13" t="n">
-        <v>50.71143199091319</v>
+        <v>390.6311794045659</v>
       </c>
       <c r="W13" t="n">
-        <v>50.71143199091319</v>
+        <v>101.6487785081866</v>
       </c>
       <c r="X13" t="n">
-        <v>50.71143199091319</v>
+        <v>101.6487785081866</v>
       </c>
       <c r="Y13" t="n">
-        <v>50.71143199091319</v>
+        <v>101.6487785081866</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2485.286380156665</v>
+        <v>1637.586901072978</v>
       </c>
       <c r="C14" t="n">
-        <v>2114.594364319349</v>
+        <v>1266.894885235662</v>
       </c>
       <c r="D14" t="n">
-        <v>1754.387563557128</v>
+        <v>1266.894885235662</v>
       </c>
       <c r="E14" t="n">
-        <v>1367.399648652797</v>
+        <v>879.9069703313312</v>
       </c>
       <c r="F14" t="n">
-        <v>955.9917057431599</v>
+        <v>468.4990274216939</v>
       </c>
       <c r="G14" t="n">
-        <v>538.2041103123792</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H14" t="n">
-        <v>209.5242347723812</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I14" t="n">
         <v>50.71143199091319</v>
@@ -5284,7 +5284,7 @@
         <v>432.762901072481</v>
       </c>
       <c r="L14" t="n">
-        <v>829.7261648535818</v>
+        <v>829.7261648535823</v>
       </c>
       <c r="M14" t="n">
         <v>1286.636576300462</v>
@@ -5308,22 +5308,22 @@
         <v>2535.571599545659</v>
       </c>
       <c r="T14" t="n">
-        <v>2535.571599545659</v>
+        <v>2315.859550404841</v>
       </c>
       <c r="U14" t="n">
-        <v>2535.571599545659</v>
+        <v>2315.859550404841</v>
       </c>
       <c r="V14" t="n">
-        <v>2535.571599545659</v>
+        <v>2315.859550404841</v>
       </c>
       <c r="W14" t="n">
-        <v>2535.571599545659</v>
+        <v>2315.859550404841</v>
       </c>
       <c r="X14" t="n">
-        <v>2535.571599545659</v>
+        <v>2028.179902841903</v>
       </c>
       <c r="Y14" t="n">
-        <v>2535.571599545659</v>
+        <v>1637.586901072978</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>979.6320219500381</v>
+        <v>832.9084402786798</v>
       </c>
       <c r="C15" t="n">
-        <v>806.8789068718552</v>
+        <v>660.1553252004969</v>
       </c>
       <c r="D15" t="n">
-        <v>659.290600230799</v>
+        <v>512.5670185594408</v>
       </c>
       <c r="E15" t="n">
-        <v>501.6810712336537</v>
+        <v>354.9574895622956</v>
       </c>
       <c r="F15" t="n">
-        <v>356.7252812502705</v>
+        <v>210.0016995789124</v>
       </c>
       <c r="G15" t="n">
-        <v>220.0009863964076</v>
+        <v>73.27740472504951</v>
       </c>
       <c r="H15" t="n">
-        <v>114.9213613606678</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I15" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J15" t="n">
-        <v>50.71143199091319</v>
+        <v>120.4127199202217</v>
       </c>
       <c r="K15" t="n">
-        <v>296.4476481521845</v>
+        <v>347.3293325303594</v>
       </c>
       <c r="L15" t="n">
-        <v>687.7199234768461</v>
+        <v>738.601607855021</v>
       </c>
       <c r="M15" t="n">
-        <v>1197.116407734492</v>
+        <v>1247.998092112667</v>
       </c>
       <c r="N15" t="n">
-        <v>1735.393833177324</v>
+        <v>1786.275517555499</v>
       </c>
       <c r="O15" t="n">
-        <v>2160.184497733399</v>
+        <v>2211.066182111574</v>
       </c>
       <c r="P15" t="n">
-        <v>2370.209254145837</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="Q15" t="n">
         <v>2535.571599545659</v>
       </c>
       <c r="R15" t="n">
-        <v>2535.571599545659</v>
+        <v>2481.698134656769</v>
       </c>
       <c r="S15" t="n">
-        <v>2470.252003537142</v>
+        <v>2323.528421865784</v>
       </c>
       <c r="T15" t="n">
-        <v>2272.5778151726</v>
+        <v>2125.854233501242</v>
       </c>
       <c r="U15" t="n">
-        <v>2045.695642583436</v>
+        <v>1898.972060912078</v>
       </c>
       <c r="V15" t="n">
-        <v>1811.444399109037</v>
+        <v>1664.720817437679</v>
       </c>
       <c r="W15" t="n">
-        <v>1558.92990744237</v>
+        <v>1412.206325771012</v>
       </c>
       <c r="X15" t="n">
-        <v>1352.403008847948</v>
+        <v>1205.67942717659</v>
       </c>
       <c r="Y15" t="n">
-        <v>1146.674573071598</v>
+        <v>999.9509914002402</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>679.5420961591335</v>
+        <v>101.6487785081866</v>
       </c>
       <c r="C16" t="n">
-        <v>679.5420961591335</v>
+        <v>101.6487785081866</v>
       </c>
       <c r="D16" t="n">
-        <v>679.5420961591335</v>
+        <v>101.6487785081866</v>
       </c>
       <c r="E16" t="n">
-        <v>679.5420961591335</v>
+        <v>101.6487785081866</v>
       </c>
       <c r="F16" t="n">
-        <v>566.1832505730705</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G16" t="n">
-        <v>397.1619332101088</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H16" t="n">
-        <v>238.9107867959494</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I16" t="n">
-        <v>100.5639307332544</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J16" t="n">
         <v>50.71143199091319</v>
@@ -5445,7 +5445,7 @@
         <v>219.6093352368815</v>
       </c>
       <c r="M16" t="n">
-        <v>355.9743406206216</v>
+        <v>355.9743406206215</v>
       </c>
       <c r="N16" t="n">
         <v>494.2381528619504</v>
@@ -5469,19 +5469,19 @@
         <v>679.5420961591335</v>
       </c>
       <c r="U16" t="n">
-        <v>679.5420961591335</v>
+        <v>390.6311794045659</v>
       </c>
       <c r="V16" t="n">
-        <v>679.5420961591335</v>
+        <v>390.6311794045659</v>
       </c>
       <c r="W16" t="n">
-        <v>679.5420961591335</v>
+        <v>101.6487785081866</v>
       </c>
       <c r="X16" t="n">
-        <v>679.5420961591335</v>
+        <v>101.6487785081866</v>
       </c>
       <c r="Y16" t="n">
-        <v>679.5420961591335</v>
+        <v>101.6487785081866</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2485.286380156665</v>
+        <v>879.9069703313312</v>
       </c>
       <c r="C17" t="n">
-        <v>2114.594364319349</v>
+        <v>879.9069703313312</v>
       </c>
       <c r="D17" t="n">
-        <v>1754.387563557128</v>
+        <v>879.9069703313312</v>
       </c>
       <c r="E17" t="n">
-        <v>1367.399648652797</v>
+        <v>879.9069703313312</v>
       </c>
       <c r="F17" t="n">
-        <v>955.9917057431599</v>
+        <v>468.4990274216939</v>
       </c>
       <c r="G17" t="n">
-        <v>538.2041103123792</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H17" t="n">
-        <v>209.5242347723812</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I17" t="n">
         <v>50.71143199091319</v>
@@ -5518,16 +5518,16 @@
         <v>154.6737472370294</v>
       </c>
       <c r="K17" t="n">
-        <v>432.7629010724811</v>
+        <v>432.762901072481</v>
       </c>
       <c r="L17" t="n">
-        <v>829.726164853582</v>
+        <v>829.7261648535822</v>
       </c>
       <c r="M17" t="n">
         <v>1286.636576300462</v>
       </c>
       <c r="N17" t="n">
-        <v>1735.42310089741</v>
+        <v>1735.423100897411</v>
       </c>
       <c r="O17" t="n">
         <v>2113.071138623965</v>
@@ -5539,28 +5539,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R17" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="S17" t="n">
-        <v>2535.571599545659</v>
+        <v>2292.00071659582</v>
       </c>
       <c r="T17" t="n">
-        <v>2535.571599545659</v>
+        <v>2072.288667455001</v>
       </c>
       <c r="U17" t="n">
-        <v>2535.571599545659</v>
+        <v>1818.371334220299</v>
       </c>
       <c r="V17" t="n">
-        <v>2535.571599545659</v>
+        <v>1486.519595308663</v>
       </c>
       <c r="W17" t="n">
-        <v>2535.571599545659</v>
+        <v>1132.448770055577</v>
       </c>
       <c r="X17" t="n">
-        <v>2535.571599545659</v>
+        <v>879.9069703313312</v>
       </c>
       <c r="Y17" t="n">
-        <v>2535.571599545659</v>
+        <v>879.9069703313312</v>
       </c>
     </row>
     <row r="18">
@@ -5570,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>832.9084402786798</v>
+        <v>979.6320219500381</v>
       </c>
       <c r="C18" t="n">
-        <v>660.1553252004969</v>
+        <v>806.8789068718552</v>
       </c>
       <c r="D18" t="n">
-        <v>512.5670185594408</v>
+        <v>659.290600230799</v>
       </c>
       <c r="E18" t="n">
-        <v>354.9574895622956</v>
+        <v>501.6810712336537</v>
       </c>
       <c r="F18" t="n">
-        <v>210.0016995789124</v>
+        <v>356.7252812502705</v>
       </c>
       <c r="G18" t="n">
-        <v>73.27740472504951</v>
+        <v>220.0009863964076</v>
       </c>
       <c r="H18" t="n">
-        <v>50.71143199091319</v>
+        <v>114.9213613606679</v>
       </c>
       <c r="I18" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J18" t="n">
-        <v>101.5931163690881</v>
+        <v>120.4127199202217</v>
       </c>
       <c r="K18" t="n">
-        <v>347.3293325303594</v>
+        <v>181.9669871305373</v>
       </c>
       <c r="L18" t="n">
-        <v>738.601607855021</v>
+        <v>573.239262455199</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.998092112667</v>
+        <v>1082.635746712845</v>
       </c>
       <c r="N18" t="n">
-        <v>1786.275517555499</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O18" t="n">
-        <v>2211.066182111574</v>
+        <v>2045.703836711752</v>
       </c>
       <c r="P18" t="n">
-        <v>2535.571599545659</v>
+        <v>2370.209254145837</v>
       </c>
       <c r="Q18" t="n">
         <v>2535.571599545659</v>
@@ -5624,22 +5624,22 @@
         <v>2323.528421865784</v>
       </c>
       <c r="T18" t="n">
-        <v>2125.854233501242</v>
+        <v>2272.5778151726</v>
       </c>
       <c r="U18" t="n">
-        <v>1898.972060912078</v>
+        <v>2045.695642583436</v>
       </c>
       <c r="V18" t="n">
-        <v>1664.720817437679</v>
+        <v>1811.444399109037</v>
       </c>
       <c r="W18" t="n">
-        <v>1412.206325771012</v>
+        <v>1558.92990744237</v>
       </c>
       <c r="X18" t="n">
-        <v>1205.67942717659</v>
+        <v>1352.403008847948</v>
       </c>
       <c r="Y18" t="n">
-        <v>999.9509914002402</v>
+        <v>1146.674573071598</v>
       </c>
     </row>
     <row r="19">
@@ -5649,10 +5649,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>219.7382531335418</v>
+        <v>276.681121049586</v>
       </c>
       <c r="C19" t="n">
-        <v>50.71143199091319</v>
+        <v>107.6542999069573</v>
       </c>
       <c r="D19" t="n">
         <v>50.71143199091319</v>
@@ -5682,7 +5682,7 @@
         <v>219.6093352368815</v>
       </c>
       <c r="M19" t="n">
-        <v>355.9743406206216</v>
+        <v>355.9743406206215</v>
       </c>
       <c r="N19" t="n">
         <v>494.2381528619504</v>
@@ -5694,31 +5694,31 @@
         <v>679.5420961591335</v>
       </c>
       <c r="Q19" t="n">
-        <v>662.9351228327425</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R19" t="n">
-        <v>662.9351228327425</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S19" t="n">
-        <v>448.1628591257734</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T19" t="n">
-        <v>448.1628591257734</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="U19" t="n">
-        <v>448.1628591257734</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="V19" t="n">
-        <v>448.1628591257734</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="W19" t="n">
-        <v>448.1628591257734</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="X19" t="n">
-        <v>219.7382531335418</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="Y19" t="n">
-        <v>219.7382531335418</v>
+        <v>458.5838397270444</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>908.896126149695</v>
+        <v>1637.586901072978</v>
       </c>
       <c r="C20" t="n">
-        <v>538.2041103123792</v>
+        <v>1266.894885235662</v>
       </c>
       <c r="D20" t="n">
-        <v>538.2041103123792</v>
+        <v>1266.894885235662</v>
       </c>
       <c r="E20" t="n">
-        <v>538.2041103123792</v>
+        <v>879.9069703313312</v>
       </c>
       <c r="F20" t="n">
-        <v>538.2041103123792</v>
+        <v>468.4990274216939</v>
       </c>
       <c r="G20" t="n">
-        <v>538.2041103123792</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H20" t="n">
-        <v>209.5242347723812</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I20" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J20" t="n">
-        <v>154.6737472370296</v>
+        <v>154.6737472370294</v>
       </c>
       <c r="K20" t="n">
-        <v>432.7629010724813</v>
+        <v>432.762901072481</v>
       </c>
       <c r="L20" t="n">
-        <v>829.7261648535823</v>
+        <v>829.7261648535821</v>
       </c>
       <c r="M20" t="n">
         <v>1286.636576300462</v>
@@ -5776,28 +5776,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R20" t="n">
-        <v>2471.287047559323</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S20" t="n">
-        <v>2292.00071659582</v>
+        <v>2356.285268582156</v>
       </c>
       <c r="T20" t="n">
-        <v>2072.288667455001</v>
+        <v>2136.573219441338</v>
       </c>
       <c r="U20" t="n">
-        <v>1818.371334220299</v>
+        <v>2136.573219441338</v>
       </c>
       <c r="V20" t="n">
-        <v>1637.57462729285</v>
+        <v>2028.179902841903</v>
       </c>
       <c r="W20" t="n">
-        <v>1283.503802039765</v>
+        <v>2028.179902841903</v>
       </c>
       <c r="X20" t="n">
-        <v>908.896126149695</v>
+        <v>2028.179902841903</v>
       </c>
       <c r="Y20" t="n">
-        <v>908.896126149695</v>
+        <v>1637.586901072978</v>
       </c>
     </row>
     <row r="21">
@@ -5822,34 +5822,34 @@
         <v>210.0016995789124</v>
       </c>
       <c r="G21" t="n">
-        <v>114.9213613606679</v>
+        <v>155.7910570266529</v>
       </c>
       <c r="H21" t="n">
-        <v>114.9213613606679</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I21" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J21" t="n">
-        <v>50.71143199091319</v>
+        <v>120.4127199202217</v>
       </c>
       <c r="K21" t="n">
-        <v>296.4476481521845</v>
+        <v>366.1489360814929</v>
       </c>
       <c r="L21" t="n">
-        <v>687.7199234768461</v>
+        <v>757.4212114061545</v>
       </c>
       <c r="M21" t="n">
-        <v>1197.116407734492</v>
+        <v>1266.817695663801</v>
       </c>
       <c r="N21" t="n">
-        <v>1735.393833177324</v>
+        <v>1805.095121106633</v>
       </c>
       <c r="O21" t="n">
-        <v>2160.184497733399</v>
+        <v>2045.703836711752</v>
       </c>
       <c r="P21" t="n">
-        <v>2484.689915167484</v>
+        <v>2370.209254145837</v>
       </c>
       <c r="Q21" t="n">
         <v>2535.571599545659</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>268.2076775571585</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="C22" t="n">
-        <v>99.18085641452987</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="D22" t="n">
-        <v>99.18085641452987</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="E22" t="n">
-        <v>99.18085641452987</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="F22" t="n">
-        <v>99.18085641452987</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G22" t="n">
-        <v>99.18085641452987</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H22" t="n">
         <v>50.71143199091319</v>
@@ -5931,31 +5931,31 @@
         <v>679.5420961591335</v>
       </c>
       <c r="Q22" t="n">
-        <v>646.2135925865364</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R22" t="n">
-        <v>496.4361755452314</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S22" t="n">
-        <v>496.4361755452314</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T22" t="n">
-        <v>268.2076775571585</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="U22" t="n">
-        <v>268.2076775571585</v>
+        <v>568.1184388795241</v>
       </c>
       <c r="V22" t="n">
-        <v>268.2076775571585</v>
+        <v>568.1184388795241</v>
       </c>
       <c r="W22" t="n">
-        <v>268.2076775571585</v>
+        <v>279.1360379831448</v>
       </c>
       <c r="X22" t="n">
-        <v>268.2076775571585</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="Y22" t="n">
-        <v>268.2076775571585</v>
+        <v>50.71143199091319</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1199.588715937044</v>
+        <v>1637.586901072978</v>
       </c>
       <c r="C23" t="n">
-        <v>1199.588715937044</v>
+        <v>1266.894885235662</v>
       </c>
       <c r="D23" t="n">
-        <v>1199.588715937044</v>
+        <v>1266.894885235662</v>
       </c>
       <c r="E23" t="n">
-        <v>1199.588715937044</v>
+        <v>879.9069703313312</v>
       </c>
       <c r="F23" t="n">
-        <v>955.9917057431599</v>
+        <v>468.4990274216939</v>
       </c>
       <c r="G23" t="n">
-        <v>538.2041103123792</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H23" t="n">
-        <v>209.5242347723812</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I23" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J23" t="n">
-        <v>154.6737472370294</v>
+        <v>154.6737472370296</v>
       </c>
       <c r="K23" t="n">
-        <v>432.762901072481</v>
+        <v>432.7629010724813</v>
       </c>
       <c r="L23" t="n">
-        <v>829.7261648535822</v>
+        <v>829.7261648535823</v>
       </c>
       <c r="M23" t="n">
         <v>1286.636576300462</v>
@@ -6016,25 +6016,25 @@
         <v>2535.571599545659</v>
       </c>
       <c r="S23" t="n">
-        <v>2535.571599545659</v>
+        <v>2366.265402216134</v>
       </c>
       <c r="T23" t="n">
-        <v>2315.859550404841</v>
+        <v>2366.265402216134</v>
       </c>
       <c r="U23" t="n">
-        <v>2315.859550404841</v>
+        <v>2366.265402216134</v>
       </c>
       <c r="V23" t="n">
-        <v>2315.859550404841</v>
+        <v>2366.265402216134</v>
       </c>
       <c r="W23" t="n">
-        <v>1961.788725151755</v>
+        <v>2012.194576963048</v>
       </c>
       <c r="X23" t="n">
-        <v>1587.181049261685</v>
+        <v>1637.586901072978</v>
       </c>
       <c r="Y23" t="n">
-        <v>1587.181049261685</v>
+        <v>1637.586901072978</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>979.6320219500381</v>
+        <v>915.4220925802833</v>
       </c>
       <c r="C24" t="n">
-        <v>806.8789068718552</v>
+        <v>742.6689775021005</v>
       </c>
       <c r="D24" t="n">
-        <v>659.290600230799</v>
+        <v>595.0806708610443</v>
       </c>
       <c r="E24" t="n">
-        <v>501.6810712336537</v>
+        <v>437.471141863899</v>
       </c>
       <c r="F24" t="n">
-        <v>356.7252812502705</v>
+        <v>292.5153518805158</v>
       </c>
       <c r="G24" t="n">
-        <v>220.0009863964076</v>
+        <v>155.7910570266529</v>
       </c>
       <c r="H24" t="n">
-        <v>114.9213613606679</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I24" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J24" t="n">
-        <v>50.71143199091319</v>
+        <v>120.4127199202217</v>
       </c>
       <c r="K24" t="n">
-        <v>296.4476481521845</v>
+        <v>181.9669871305373</v>
       </c>
       <c r="L24" t="n">
-        <v>687.7199234768461</v>
+        <v>573.239262455199</v>
       </c>
       <c r="M24" t="n">
-        <v>1197.116407734492</v>
+        <v>1082.635746712845</v>
       </c>
       <c r="N24" t="n">
-        <v>1735.393833177324</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O24" t="n">
-        <v>2160.184497733399</v>
+        <v>2045.703836711752</v>
       </c>
       <c r="P24" t="n">
-        <v>2484.689915167484</v>
+        <v>2370.209254145837</v>
       </c>
       <c r="Q24" t="n">
         <v>2535.571599545659</v>
       </c>
       <c r="R24" t="n">
-        <v>2481.698134656769</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S24" t="n">
-        <v>2323.528421865784</v>
+        <v>2406.042074167387</v>
       </c>
       <c r="T24" t="n">
-        <v>2125.854233501242</v>
+        <v>2208.367885802846</v>
       </c>
       <c r="U24" t="n">
-        <v>1898.972060912078</v>
+        <v>1981.485713213681</v>
       </c>
       <c r="V24" t="n">
-        <v>1664.720817437679</v>
+        <v>1747.234469739282</v>
       </c>
       <c r="W24" t="n">
-        <v>1412.206325771012</v>
+        <v>1494.719978072616</v>
       </c>
       <c r="X24" t="n">
-        <v>1352.403008847948</v>
+        <v>1288.193079478193</v>
       </c>
       <c r="Y24" t="n">
-        <v>1146.674573071598</v>
+        <v>1082.464643701844</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>390.5596952627542</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="C25" t="n">
-        <v>390.5596952627542</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="D25" t="n">
-        <v>390.5596952627542</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="E25" t="n">
-        <v>242.1004789261894</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="F25" t="n">
-        <v>242.1004789261894</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G25" t="n">
-        <v>242.1004789261894</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H25" t="n">
-        <v>238.9107867959494</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I25" t="n">
-        <v>100.5639307332544</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J25" t="n">
         <v>50.71143199091319</v>
@@ -6180,19 +6180,19 @@
         <v>679.5420961591335</v>
       </c>
       <c r="U25" t="n">
-        <v>679.5420961591335</v>
+        <v>595.1850965912715</v>
       </c>
       <c r="V25" t="n">
-        <v>679.5420961591335</v>
+        <v>339.6938328872925</v>
       </c>
       <c r="W25" t="n">
-        <v>390.5596952627542</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="X25" t="n">
-        <v>390.5596952627542</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="Y25" t="n">
-        <v>390.5596952627542</v>
+        <v>50.71143199091319</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1513.815381502253</v>
+        <v>1040.185999126732</v>
       </c>
       <c r="C26" t="n">
-        <v>1143.123365664937</v>
+        <v>669.4939832894162</v>
       </c>
       <c r="D26" t="n">
-        <v>1143.123365664937</v>
+        <v>669.4939832894162</v>
       </c>
       <c r="E26" t="n">
-        <v>1143.123365664937</v>
+        <v>669.4939832894162</v>
       </c>
       <c r="F26" t="n">
-        <v>955.9917057431599</v>
+        <v>669.4939832894162</v>
       </c>
       <c r="G26" t="n">
-        <v>538.2041103123792</v>
+        <v>379.3913075309111</v>
       </c>
       <c r="H26" t="n">
-        <v>209.5242347723812</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I26" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J26" t="n">
-        <v>154.6737472370294</v>
+        <v>154.6737472370296</v>
       </c>
       <c r="K26" t="n">
-        <v>432.762901072481</v>
+        <v>432.7629010724813</v>
       </c>
       <c r="L26" t="n">
-        <v>829.726164853582</v>
+        <v>829.7261648535825</v>
       </c>
       <c r="M26" t="n">
         <v>1286.636576300462</v>
       </c>
       <c r="N26" t="n">
-        <v>1735.42310089741</v>
+        <v>1735.423100897411</v>
       </c>
       <c r="O26" t="n">
         <v>2113.071138623965</v>
@@ -6256,22 +6256,22 @@
         <v>2292.00071659582</v>
       </c>
       <c r="T26" t="n">
-        <v>2292.00071659582</v>
+        <v>2072.288667455001</v>
       </c>
       <c r="U26" t="n">
-        <v>2292.00071659582</v>
+        <v>1818.371334220299</v>
       </c>
       <c r="V26" t="n">
-        <v>2292.00071659582</v>
+        <v>1818.371334220299</v>
       </c>
       <c r="W26" t="n">
-        <v>2292.00071659582</v>
+        <v>1818.371334220299</v>
       </c>
       <c r="X26" t="n">
-        <v>2292.00071659582</v>
+        <v>1818.371334220299</v>
       </c>
       <c r="Y26" t="n">
-        <v>1901.407714826895</v>
+        <v>1427.778332451373</v>
       </c>
     </row>
     <row r="27">
@@ -6296,34 +6296,34 @@
         <v>210.0016995789124</v>
       </c>
       <c r="G27" t="n">
-        <v>73.27740472504951</v>
+        <v>210.0016995789124</v>
       </c>
       <c r="H27" t="n">
-        <v>50.71143199091319</v>
+        <v>104.9220745431727</v>
       </c>
       <c r="I27" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J27" t="n">
-        <v>50.71143199091319</v>
+        <v>120.4127199202217</v>
       </c>
       <c r="K27" t="n">
-        <v>296.4476481521845</v>
+        <v>366.1489360814929</v>
       </c>
       <c r="L27" t="n">
-        <v>687.7199234768461</v>
+        <v>757.4212114061545</v>
       </c>
       <c r="M27" t="n">
-        <v>1197.116407734492</v>
+        <v>1266.817695663801</v>
       </c>
       <c r="N27" t="n">
-        <v>1735.393833177324</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O27" t="n">
-        <v>2160.184497733399</v>
+        <v>2045.703836711752</v>
       </c>
       <c r="P27" t="n">
-        <v>2484.689915167484</v>
+        <v>2370.209254145837</v>
       </c>
       <c r="Q27" t="n">
         <v>2535.571599545659</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>50.71143199091319</v>
+        <v>539.2702437434928</v>
       </c>
       <c r="C28" t="n">
-        <v>50.71143199091319</v>
+        <v>370.2434226008642</v>
       </c>
       <c r="D28" t="n">
-        <v>50.71143199091319</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="E28" t="n">
-        <v>50.71143199091319</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="F28" t="n">
-        <v>50.71143199091319</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="G28" t="n">
         <v>50.71143199091319</v>
@@ -6411,25 +6411,25 @@
         <v>679.5420961591335</v>
       </c>
       <c r="S28" t="n">
-        <v>534.431193682965</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T28" t="n">
-        <v>306.2026956948922</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="U28" t="n">
-        <v>306.2026956948922</v>
+        <v>539.2702437434928</v>
       </c>
       <c r="V28" t="n">
-        <v>50.71143199091319</v>
+        <v>539.2702437434928</v>
       </c>
       <c r="W28" t="n">
-        <v>50.71143199091319</v>
+        <v>539.2702437434928</v>
       </c>
       <c r="X28" t="n">
-        <v>50.71143199091319</v>
+        <v>539.2702437434928</v>
       </c>
       <c r="Y28" t="n">
-        <v>50.71143199091319</v>
+        <v>539.2702437434928</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1330.625508877275</v>
+        <v>1568.79364663355</v>
       </c>
       <c r="C29" t="n">
-        <v>1330.625508877275</v>
+        <v>1568.79364663355</v>
       </c>
       <c r="D29" t="n">
-        <v>970.418708115054</v>
+        <v>1208.586845871329</v>
       </c>
       <c r="E29" t="n">
-        <v>583.4307932107231</v>
+        <v>1208.586845871329</v>
       </c>
       <c r="F29" t="n">
-        <v>172.0228503010858</v>
+        <v>797.1789029616918</v>
       </c>
       <c r="G29" t="n">
-        <v>172.0228503010858</v>
+        <v>379.3913075309111</v>
       </c>
       <c r="H29" t="n">
-        <v>172.0228503010858</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I29" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J29" t="n">
-        <v>154.6737472370296</v>
+        <v>154.6737472370293</v>
       </c>
       <c r="K29" t="n">
-        <v>432.7629010724813</v>
+        <v>432.762901072481</v>
       </c>
       <c r="L29" t="n">
-        <v>829.7261648535823</v>
+        <v>829.7261648535821</v>
       </c>
       <c r="M29" t="n">
         <v>1286.636576300462</v>
       </c>
       <c r="N29" t="n">
-        <v>1735.42310089741</v>
+        <v>1735.423100897411</v>
       </c>
       <c r="O29" t="n">
         <v>2113.071138623965</v>
@@ -6487,28 +6487,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R29" t="n">
-        <v>2471.287047559323</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S29" t="n">
-        <v>2292.00071659582</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="T29" t="n">
-        <v>2072.288667455001</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="U29" t="n">
-        <v>2072.288667455001</v>
+        <v>2291.238387314111</v>
       </c>
       <c r="V29" t="n">
-        <v>2072.288667455001</v>
+        <v>1959.386648402475</v>
       </c>
       <c r="W29" t="n">
-        <v>1718.217842201916</v>
+        <v>1959.386648402475</v>
       </c>
       <c r="X29" t="n">
-        <v>1718.217842201916</v>
+        <v>1959.386648402475</v>
       </c>
       <c r="Y29" t="n">
-        <v>1718.217842201916</v>
+        <v>1568.79364663355</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>979.6320219500381</v>
+        <v>886.7819051675707</v>
       </c>
       <c r="C30" t="n">
-        <v>806.8789068718552</v>
+        <v>714.0287900893879</v>
       </c>
       <c r="D30" t="n">
-        <v>659.290600230799</v>
+        <v>566.4404834483319</v>
       </c>
       <c r="E30" t="n">
-        <v>501.6810712336537</v>
+        <v>408.8309544511866</v>
       </c>
       <c r="F30" t="n">
-        <v>356.7252812502705</v>
+        <v>263.8751644678034</v>
       </c>
       <c r="G30" t="n">
         <v>220.0009863964076</v>
@@ -6542,16 +6542,16 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J30" t="n">
-        <v>50.71143199091319</v>
+        <v>120.4127199202217</v>
       </c>
       <c r="K30" t="n">
-        <v>296.4476481521845</v>
+        <v>366.1489360814929</v>
       </c>
       <c r="L30" t="n">
-        <v>687.7199234768461</v>
+        <v>757.4212114061545</v>
       </c>
       <c r="M30" t="n">
-        <v>1197.116407734492</v>
+        <v>1266.817695663801</v>
       </c>
       <c r="N30" t="n">
         <v>1620.913172155677</v>
@@ -6566,28 +6566,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R30" t="n">
-        <v>2481.698134656769</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S30" t="n">
-        <v>2323.528421865784</v>
+        <v>2377.401886754675</v>
       </c>
       <c r="T30" t="n">
-        <v>2125.854233501242</v>
+        <v>2179.727698390133</v>
       </c>
       <c r="U30" t="n">
-        <v>1898.972060912078</v>
+        <v>1952.845525800969</v>
       </c>
       <c r="V30" t="n">
-        <v>1664.720817437679</v>
+        <v>1718.59428232657</v>
       </c>
       <c r="W30" t="n">
-        <v>1558.92990744237</v>
+        <v>1466.079790659903</v>
       </c>
       <c r="X30" t="n">
-        <v>1352.403008847948</v>
+        <v>1259.552892065481</v>
       </c>
       <c r="Y30" t="n">
-        <v>1146.674573071598</v>
+        <v>1053.824456289131</v>
       </c>
     </row>
     <row r="31">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>464.7698324521643</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="C31" t="n">
-        <v>295.7430113095357</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="D31" t="n">
-        <v>295.7430113095357</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="E31" t="n">
-        <v>147.2837949729709</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="F31" t="n">
-        <v>147.2837949729709</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G31" t="n">
         <v>50.71143199091319</v>
@@ -6648,25 +6648,25 @@
         <v>679.5420961591335</v>
       </c>
       <c r="S31" t="n">
-        <v>464.7698324521643</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T31" t="n">
-        <v>464.7698324521643</v>
+        <v>595.1136124494598</v>
       </c>
       <c r="U31" t="n">
-        <v>464.7698324521643</v>
+        <v>306.2026956948922</v>
       </c>
       <c r="V31" t="n">
-        <v>464.7698324521643</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="W31" t="n">
-        <v>464.7698324521643</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="X31" t="n">
-        <v>464.7698324521643</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="Y31" t="n">
-        <v>464.7698324521643</v>
+        <v>50.71143199091319</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1367.399648652797</v>
+        <v>1318.494036575687</v>
       </c>
       <c r="C32" t="n">
-        <v>1367.399648652797</v>
+        <v>947.8020207383707</v>
       </c>
       <c r="D32" t="n">
-        <v>1367.399648652797</v>
+        <v>947.8020207383707</v>
       </c>
       <c r="E32" t="n">
-        <v>1367.399648652797</v>
+        <v>560.81410583404</v>
       </c>
       <c r="F32" t="n">
-        <v>955.9917057431599</v>
+        <v>149.4061629244027</v>
       </c>
       <c r="G32" t="n">
-        <v>538.2041103123792</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H32" t="n">
-        <v>209.5242347723812</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I32" t="n">
         <v>50.71143199091319</v>
@@ -6727,25 +6727,25 @@
         <v>2471.287047559323</v>
       </c>
       <c r="S32" t="n">
-        <v>2292.00071659582</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="T32" t="n">
-        <v>2072.288667455001</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="U32" t="n">
-        <v>1818.371334220299</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="V32" t="n">
-        <v>1486.519595308663</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="W32" t="n">
-        <v>1367.399648652797</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="X32" t="n">
-        <v>1367.399648652797</v>
+        <v>2096.679371669253</v>
       </c>
       <c r="Y32" t="n">
-        <v>1367.399648652797</v>
+        <v>1706.086369900328</v>
       </c>
     </row>
     <row r="33">
@@ -6773,7 +6773,7 @@
         <v>73.27740472504951</v>
       </c>
       <c r="H33" t="n">
-        <v>73.27740472504951</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I33" t="n">
         <v>50.71143199091319</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2202.835526875423</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="C34" t="n">
-        <v>2202.835526875423</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="D34" t="n">
-        <v>2202.835526875423</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="E34" t="n">
-        <v>2054.376310538858</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="F34" t="n">
-        <v>1906.740935377439</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="G34" t="n">
-        <v>1906.740935377439</v>
+        <v>282.2922808080989</v>
       </c>
       <c r="H34" t="n">
-        <v>1906.740935377439</v>
+        <v>189.0582880536082</v>
       </c>
       <c r="I34" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J34" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K34" t="n">
-        <v>1956.351184640836</v>
+        <v>100.3216812543103</v>
       </c>
       <c r="L34" t="n">
-        <v>2075.638838623408</v>
+        <v>219.6093352368815</v>
       </c>
       <c r="M34" t="n">
-        <v>2212.003844007148</v>
+        <v>355.9743406206215</v>
       </c>
       <c r="N34" t="n">
-        <v>2350.267656248476</v>
+        <v>494.2381528619504</v>
       </c>
       <c r="O34" t="n">
-        <v>2462.640068944411</v>
+        <v>606.6105655578849</v>
       </c>
       <c r="P34" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="Q34" t="n">
-        <v>2502.243095973062</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R34" t="n">
-        <v>2423.793783307512</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S34" t="n">
-        <v>2423.793783307512</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T34" t="n">
-        <v>2423.793783307512</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="U34" t="n">
-        <v>2423.793783307512</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="V34" t="n">
-        <v>2423.793783307512</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="W34" t="n">
-        <v>2423.793783307512</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="X34" t="n">
-        <v>2423.793783307512</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="Y34" t="n">
-        <v>2202.835526875423</v>
+        <v>451.3135981710606</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1816.127527309382</v>
+        <v>1419.300765077862</v>
       </c>
       <c r="C35" t="n">
-        <v>1816.127527309382</v>
+        <v>1048.608749240547</v>
       </c>
       <c r="D35" t="n">
-        <v>1754.387563557128</v>
+        <v>1048.608749240547</v>
       </c>
       <c r="E35" t="n">
-        <v>1367.399648652797</v>
+        <v>1048.608749240547</v>
       </c>
       <c r="F35" t="n">
-        <v>955.9917057431599</v>
+        <v>637.2008063309095</v>
       </c>
       <c r="G35" t="n">
-        <v>538.2041103123792</v>
+        <v>379.3913075309111</v>
       </c>
       <c r="H35" t="n">
-        <v>209.5242347723812</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I35" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J35" t="n">
-        <v>154.6737472370291</v>
+        <v>154.6737472370294</v>
       </c>
       <c r="K35" t="n">
-        <v>432.7629010724813</v>
+        <v>432.762901072481</v>
       </c>
       <c r="L35" t="n">
-        <v>829.7261648535824</v>
+        <v>829.7261648535823</v>
       </c>
       <c r="M35" t="n">
         <v>1286.636576300462</v>
       </c>
       <c r="N35" t="n">
-        <v>1735.42310089741</v>
+        <v>1735.423100897411</v>
       </c>
       <c r="O35" t="n">
         <v>2113.071138623965</v>
@@ -6973,16 +6973,16 @@
         <v>2535.571599545659</v>
       </c>
       <c r="V35" t="n">
-        <v>2203.719860634023</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="W35" t="n">
-        <v>2203.719860634023</v>
+        <v>2181.500774292574</v>
       </c>
       <c r="X35" t="n">
-        <v>2203.719860634023</v>
+        <v>1806.893098402504</v>
       </c>
       <c r="Y35" t="n">
-        <v>2203.719860634023</v>
+        <v>1806.893098402504</v>
       </c>
     </row>
     <row r="36">
@@ -6992,13 +6992,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>832.9084402786798</v>
+        <v>979.6320219500381</v>
       </c>
       <c r="C36" t="n">
-        <v>660.1553252004969</v>
+        <v>806.8789068718552</v>
       </c>
       <c r="D36" t="n">
-        <v>512.5670185594408</v>
+        <v>659.290600230799</v>
       </c>
       <c r="E36" t="n">
         <v>501.6810712336537</v>
@@ -7016,25 +7016,25 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J36" t="n">
-        <v>101.5931163690881</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K36" t="n">
-        <v>347.3293325303594</v>
+        <v>181.9669871305373</v>
       </c>
       <c r="L36" t="n">
-        <v>738.601607855021</v>
+        <v>573.239262455199</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.998092112667</v>
+        <v>1082.635746712845</v>
       </c>
       <c r="N36" t="n">
-        <v>1786.275517555499</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O36" t="n">
-        <v>2211.066182111574</v>
+        <v>2045.703836711752</v>
       </c>
       <c r="P36" t="n">
-        <v>2535.571599545659</v>
+        <v>2370.209254145837</v>
       </c>
       <c r="Q36" t="n">
         <v>2535.571599545659</v>
@@ -7043,25 +7043,25 @@
         <v>2481.698134656769</v>
       </c>
       <c r="S36" t="n">
-        <v>2323.528421865784</v>
+        <v>2470.252003537142</v>
       </c>
       <c r="T36" t="n">
-        <v>2125.854233501242</v>
+        <v>2272.5778151726</v>
       </c>
       <c r="U36" t="n">
-        <v>1898.972060912078</v>
+        <v>2045.695642583436</v>
       </c>
       <c r="V36" t="n">
-        <v>1664.720817437679</v>
+        <v>1811.444399109037</v>
       </c>
       <c r="W36" t="n">
-        <v>1412.206325771012</v>
+        <v>1558.92990744237</v>
       </c>
       <c r="X36" t="n">
-        <v>1205.67942717659</v>
+        <v>1352.403008847948</v>
       </c>
       <c r="Y36" t="n">
-        <v>999.9509914002402</v>
+        <v>1146.674573071598</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2086.384845125498</v>
+        <v>198.3468071523319</v>
       </c>
       <c r="C37" t="n">
-        <v>2086.384845125498</v>
+        <v>198.3468071523319</v>
       </c>
       <c r="D37" t="n">
-        <v>2086.384845125498</v>
+        <v>198.3468071523319</v>
       </c>
       <c r="E37" t="n">
-        <v>2086.384845125498</v>
+        <v>198.3468071523319</v>
       </c>
       <c r="F37" t="n">
-        <v>2086.384845125498</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G37" t="n">
-        <v>2064.992081791599</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H37" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I37" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J37" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K37" t="n">
-        <v>1956.351184640836</v>
+        <v>100.3216812543103</v>
       </c>
       <c r="L37" t="n">
-        <v>2075.638838623408</v>
+        <v>219.6093352368815</v>
       </c>
       <c r="M37" t="n">
-        <v>2212.003844007148</v>
+        <v>355.9743406206215</v>
       </c>
       <c r="N37" t="n">
-        <v>2350.267656248476</v>
+        <v>494.2381528619504</v>
       </c>
       <c r="O37" t="n">
-        <v>2462.640068944411</v>
+        <v>606.6105655578849</v>
       </c>
       <c r="P37" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="Q37" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R37" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S37" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T37" t="n">
-        <v>2307.343101557587</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="U37" t="n">
-        <v>2307.343101557587</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="V37" t="n">
-        <v>2307.343101557587</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="W37" t="n">
-        <v>2307.343101557587</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="X37" t="n">
-        <v>2307.343101557587</v>
+        <v>601.2077822618794</v>
       </c>
       <c r="Y37" t="n">
-        <v>2086.384845125498</v>
+        <v>380.2495258297903</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2144.978597776734</v>
+        <v>1580.006106404418</v>
       </c>
       <c r="C38" t="n">
-        <v>1774.286581939418</v>
+        <v>1209.314090567102</v>
       </c>
       <c r="D38" t="n">
-        <v>1414.079781177198</v>
+        <v>849.1072898048812</v>
       </c>
       <c r="E38" t="n">
-        <v>1027.091866272867</v>
+        <v>462.1193749005504</v>
       </c>
       <c r="F38" t="n">
-        <v>615.6839233632295</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G38" t="n">
-        <v>197.8963279324488</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H38" t="n">
         <v>50.71143199091319</v>
@@ -7174,13 +7174,13 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J38" t="n">
-        <v>154.6737472370296</v>
+        <v>154.6737472370294</v>
       </c>
       <c r="K38" t="n">
-        <v>432.7629010724813</v>
+        <v>432.762901072481</v>
       </c>
       <c r="L38" t="n">
-        <v>829.7261648535823</v>
+        <v>829.7261648535821</v>
       </c>
       <c r="M38" t="n">
         <v>1286.636576300462</v>
@@ -7198,28 +7198,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R38" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="S38" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="T38" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="U38" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="V38" t="n">
-        <v>2535.571599545659</v>
+        <v>2139.435308647688</v>
       </c>
       <c r="W38" t="n">
-        <v>2535.571599545659</v>
+        <v>2139.435308647688</v>
       </c>
       <c r="X38" t="n">
-        <v>2535.571599545659</v>
+        <v>1967.598439729059</v>
       </c>
       <c r="Y38" t="n">
-        <v>2144.978597776734</v>
+        <v>1967.598439729059</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>979.6320219500381</v>
+        <v>832.9084402786798</v>
       </c>
       <c r="C39" t="n">
-        <v>806.8789068718552</v>
+        <v>660.1553252004969</v>
       </c>
       <c r="D39" t="n">
-        <v>659.290600230799</v>
+        <v>512.5670185594408</v>
       </c>
       <c r="E39" t="n">
-        <v>501.6810712336537</v>
+        <v>354.9574895622956</v>
       </c>
       <c r="F39" t="n">
-        <v>356.7252812502705</v>
+        <v>210.0016995789124</v>
       </c>
       <c r="G39" t="n">
-        <v>220.0009863964076</v>
+        <v>73.27740472504951</v>
       </c>
       <c r="H39" t="n">
-        <v>114.9213613606679</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I39" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J39" t="n">
-        <v>101.5931163690881</v>
+        <v>120.4127199202217</v>
       </c>
       <c r="K39" t="n">
-        <v>347.3293325303594</v>
+        <v>366.1489360814929</v>
       </c>
       <c r="L39" t="n">
-        <v>738.601607855021</v>
+        <v>757.4212114061545</v>
       </c>
       <c r="M39" t="n">
-        <v>1247.998092112667</v>
+        <v>1266.817695663801</v>
       </c>
       <c r="N39" t="n">
-        <v>1786.275517555499</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O39" t="n">
-        <v>2211.066182111574</v>
+        <v>2045.703836711752</v>
       </c>
       <c r="P39" t="n">
-        <v>2535.571599545659</v>
+        <v>2370.209254145837</v>
       </c>
       <c r="Q39" t="n">
         <v>2535.571599545659</v>
       </c>
       <c r="R39" t="n">
-        <v>2535.571599545659</v>
+        <v>2481.698134656769</v>
       </c>
       <c r="S39" t="n">
-        <v>2470.252003537142</v>
+        <v>2323.528421865784</v>
       </c>
       <c r="T39" t="n">
-        <v>2272.5778151726</v>
+        <v>2125.854233501242</v>
       </c>
       <c r="U39" t="n">
-        <v>2045.695642583436</v>
+        <v>1898.972060912078</v>
       </c>
       <c r="V39" t="n">
-        <v>1811.444399109037</v>
+        <v>1664.720817437679</v>
       </c>
       <c r="W39" t="n">
-        <v>1558.92990744237</v>
+        <v>1412.206325771012</v>
       </c>
       <c r="X39" t="n">
-        <v>1352.403008847948</v>
+        <v>1205.67942717659</v>
       </c>
       <c r="Y39" t="n">
-        <v>1146.674573071598</v>
+        <v>999.9509914002402</v>
       </c>
     </row>
     <row r="40">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>50.71143199091319</v>
+        <v>377.9838957680342</v>
       </c>
       <c r="C40" t="n">
-        <v>50.71143199091319</v>
+        <v>377.9838957680342</v>
       </c>
       <c r="D40" t="n">
-        <v>50.71143199091319</v>
+        <v>377.9838957680342</v>
       </c>
       <c r="E40" t="n">
-        <v>50.71143199091319</v>
+        <v>377.9838957680342</v>
       </c>
       <c r="F40" t="n">
-        <v>50.71143199091319</v>
+        <v>377.9838957680342</v>
       </c>
       <c r="G40" t="n">
-        <v>50.71143199091319</v>
+        <v>208.9625784050725</v>
       </c>
       <c r="H40" t="n">
         <v>50.71143199091319</v>
@@ -7362,22 +7362,22 @@
         <v>679.5420961591335</v>
       </c>
       <c r="T40" t="n">
-        <v>451.3135981710606</v>
+        <v>666.8948125226018</v>
       </c>
       <c r="U40" t="n">
-        <v>306.2026956948922</v>
+        <v>377.9838957680342</v>
       </c>
       <c r="V40" t="n">
-        <v>50.71143199091319</v>
+        <v>377.9838957680342</v>
       </c>
       <c r="W40" t="n">
-        <v>50.71143199091319</v>
+        <v>377.9838957680342</v>
       </c>
       <c r="X40" t="n">
-        <v>50.71143199091319</v>
+        <v>377.9838957680342</v>
       </c>
       <c r="Y40" t="n">
-        <v>50.71143199091319</v>
+        <v>377.9838957680342</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1162.382763398877</v>
+        <v>1028.707763308938</v>
       </c>
       <c r="C41" t="n">
-        <v>1162.382763398877</v>
+        <v>658.0157474716217</v>
       </c>
       <c r="D41" t="n">
-        <v>1162.382763398877</v>
+        <v>297.8089467094011</v>
       </c>
       <c r="E41" t="n">
-        <v>1162.382763398877</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="F41" t="n">
-        <v>955.9917057431599</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G41" t="n">
-        <v>538.2041103123792</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H41" t="n">
-        <v>209.5242347723812</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I41" t="n">
-        <v>50.7114319909132</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J41" t="n">
-        <v>154.6737472370294</v>
+        <v>154.6737472370293</v>
       </c>
       <c r="K41" t="n">
-        <v>432.7629010724811</v>
+        <v>432.7629010724809</v>
       </c>
       <c r="L41" t="n">
-        <v>829.7261648535818</v>
+        <v>829.726164853582</v>
       </c>
       <c r="M41" t="n">
         <v>1286.636576300462</v>
@@ -7432,31 +7432,31 @@
         <v>2398.446208459429</v>
       </c>
       <c r="Q41" t="n">
-        <v>2535.57159954566</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="R41" t="n">
-        <v>2535.57159954566</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S41" t="n">
-        <v>2535.57159954566</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="T41" t="n">
-        <v>2535.57159954566</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="U41" t="n">
-        <v>2281.654266310957</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="V41" t="n">
-        <v>2281.654266310957</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="W41" t="n">
-        <v>1927.583441057872</v>
+        <v>2181.500774292574</v>
       </c>
       <c r="X41" t="n">
-        <v>1552.975765167802</v>
+        <v>1806.893098402504</v>
       </c>
       <c r="Y41" t="n">
-        <v>1162.382763398877</v>
+        <v>1416.300096633579</v>
       </c>
     </row>
     <row r="42">
@@ -7466,52 +7466,52 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>832.9084402786802</v>
+        <v>979.6320219500381</v>
       </c>
       <c r="C42" t="n">
-        <v>742.6689775021005</v>
+        <v>806.8789068718552</v>
       </c>
       <c r="D42" t="n">
-        <v>595.0806708610443</v>
+        <v>659.290600230799</v>
       </c>
       <c r="E42" t="n">
-        <v>437.471141863899</v>
+        <v>501.6810712336537</v>
       </c>
       <c r="F42" t="n">
-        <v>292.5153518805158</v>
+        <v>356.7252812502705</v>
       </c>
       <c r="G42" t="n">
-        <v>155.7910570266529</v>
+        <v>220.0009863964076</v>
       </c>
       <c r="H42" t="n">
-        <v>50.7114319909132</v>
+        <v>114.9213613606679</v>
       </c>
       <c r="I42" t="n">
-        <v>50.7114319909132</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J42" t="n">
-        <v>120.4127199202217</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K42" t="n">
-        <v>366.148936081493</v>
+        <v>181.9669871305373</v>
       </c>
       <c r="L42" t="n">
-        <v>757.4212114061547</v>
+        <v>573.239262455199</v>
       </c>
       <c r="M42" t="n">
-        <v>1266.817695663801</v>
+        <v>1082.635746712845</v>
       </c>
       <c r="N42" t="n">
-        <v>1620.913172155678</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O42" t="n">
         <v>2045.703836711752</v>
       </c>
       <c r="P42" t="n">
-        <v>2370.209254145838</v>
+        <v>2370.209254145837</v>
       </c>
       <c r="Q42" t="n">
-        <v>2535.57159954566</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="R42" t="n">
         <v>2481.698134656769</v>
@@ -7520,22 +7520,22 @@
         <v>2323.528421865784</v>
       </c>
       <c r="T42" t="n">
-        <v>2125.854233501243</v>
+        <v>2125.854233501242</v>
       </c>
       <c r="U42" t="n">
-        <v>1898.972060912079</v>
+        <v>1898.972060912078</v>
       </c>
       <c r="V42" t="n">
         <v>1664.720817437679</v>
       </c>
       <c r="W42" t="n">
-        <v>1412.206325771013</v>
+        <v>1412.206325771012</v>
       </c>
       <c r="X42" t="n">
-        <v>1205.67942717659</v>
+        <v>1352.403008847948</v>
       </c>
       <c r="Y42" t="n">
-        <v>999.9509914002407</v>
+        <v>1146.674573071598</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2280.080335841681</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="C43" t="n">
-        <v>2280.080335841681</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="D43" t="n">
-        <v>2280.080335841681</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="E43" t="n">
-        <v>2273.250126644161</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="F43" t="n">
-        <v>2125.614751482743</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G43" t="n">
-        <v>1956.593434119781</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H43" t="n">
-        <v>1956.593434119781</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I43" t="n">
-        <v>1956.593434119781</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J43" t="n">
-        <v>1906.74093537744</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K43" t="n">
-        <v>1956.351184640837</v>
+        <v>100.3216812543103</v>
       </c>
       <c r="L43" t="n">
-        <v>2075.638838623408</v>
+        <v>219.6093352368815</v>
       </c>
       <c r="M43" t="n">
-        <v>2212.003844007148</v>
+        <v>355.9743406206215</v>
       </c>
       <c r="N43" t="n">
-        <v>2350.267656248477</v>
+        <v>494.2381528619504</v>
       </c>
       <c r="O43" t="n">
-        <v>2462.640068944411</v>
+        <v>606.6105655578849</v>
       </c>
       <c r="P43" t="n">
-        <v>2535.57159954566</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="Q43" t="n">
-        <v>2535.57159954566</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R43" t="n">
-        <v>2535.57159954566</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S43" t="n">
-        <v>2535.57159954566</v>
+        <v>464.7698324521643</v>
       </c>
       <c r="T43" t="n">
-        <v>2535.57159954566</v>
+        <v>464.7698324521643</v>
       </c>
       <c r="U43" t="n">
-        <v>2535.57159954566</v>
+        <v>175.8589156975967</v>
       </c>
       <c r="V43" t="n">
-        <v>2280.080335841681</v>
+        <v>175.8589156975967</v>
       </c>
       <c r="W43" t="n">
-        <v>2280.080335841681</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="X43" t="n">
-        <v>2280.080335841681</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="Y43" t="n">
-        <v>2280.080335841681</v>
+        <v>50.71143199091319</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1224.029108235505</v>
+        <v>1168.59816349478</v>
       </c>
       <c r="C44" t="n">
-        <v>853.3370923981889</v>
+        <v>797.9061476574645</v>
       </c>
       <c r="D44" t="n">
-        <v>493.1302916359683</v>
+        <v>437.699346895244</v>
       </c>
       <c r="E44" t="n">
-        <v>493.1302916359683</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="F44" t="n">
-        <v>493.1302916359683</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G44" t="n">
-        <v>209.5242347723812</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H44" t="n">
-        <v>209.5242347723812</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I44" t="n">
-        <v>50.7114319909132</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J44" t="n">
         <v>154.6737472370296</v>
@@ -7669,31 +7669,31 @@
         <v>2398.446208459429</v>
       </c>
       <c r="Q44" t="n">
-        <v>2535.57159954566</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="R44" t="n">
-        <v>2535.57159954566</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="S44" t="n">
-        <v>2356.285268582157</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="T44" t="n">
-        <v>2356.285268582157</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="U44" t="n">
-        <v>2356.285268582157</v>
+        <v>2300.854323841432</v>
       </c>
       <c r="V44" t="n">
-        <v>2356.285268582157</v>
+        <v>2300.854323841432</v>
       </c>
       <c r="W44" t="n">
-        <v>2002.214443329071</v>
+        <v>1946.783498588347</v>
       </c>
       <c r="X44" t="n">
-        <v>2002.214443329071</v>
+        <v>1946.783498588347</v>
       </c>
       <c r="Y44" t="n">
-        <v>1611.621441560146</v>
+        <v>1556.190496819422</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>979.6320219500381</v>
+        <v>832.9084402786798</v>
       </c>
       <c r="C45" t="n">
-        <v>806.8789068718552</v>
+        <v>660.1553252004969</v>
       </c>
       <c r="D45" t="n">
-        <v>659.290600230799</v>
+        <v>512.5670185594408</v>
       </c>
       <c r="E45" t="n">
-        <v>501.6810712336537</v>
+        <v>354.9574895622956</v>
       </c>
       <c r="F45" t="n">
-        <v>356.7252812502705</v>
+        <v>210.0016995789124</v>
       </c>
       <c r="G45" t="n">
-        <v>220.0009863964076</v>
+        <v>155.7910570266529</v>
       </c>
       <c r="H45" t="n">
-        <v>114.9213613606679</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I45" t="n">
-        <v>50.7114319909132</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J45" t="n">
         <v>120.4127199202217</v>
       </c>
       <c r="K45" t="n">
-        <v>366.148936081493</v>
+        <v>366.1489360814929</v>
       </c>
       <c r="L45" t="n">
-        <v>757.4212114061547</v>
+        <v>757.4212114061545</v>
       </c>
       <c r="M45" t="n">
         <v>1266.817695663801</v>
       </c>
       <c r="N45" t="n">
-        <v>1620.913172155678</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O45" t="n">
         <v>2045.703836711752</v>
       </c>
       <c r="P45" t="n">
-        <v>2370.209254145838</v>
+        <v>2370.209254145837</v>
       </c>
       <c r="Q45" t="n">
-        <v>2535.57159954566</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="R45" t="n">
         <v>2481.698134656769</v>
       </c>
       <c r="S45" t="n">
-        <v>2470.252003537142</v>
+        <v>2323.528421865784</v>
       </c>
       <c r="T45" t="n">
-        <v>2272.5778151726</v>
+        <v>2125.854233501242</v>
       </c>
       <c r="U45" t="n">
-        <v>2045.695642583436</v>
+        <v>1898.972060912078</v>
       </c>
       <c r="V45" t="n">
-        <v>1811.444399109037</v>
+        <v>1664.720817437679</v>
       </c>
       <c r="W45" t="n">
-        <v>1558.92990744237</v>
+        <v>1412.206325771012</v>
       </c>
       <c r="X45" t="n">
-        <v>1352.403008847948</v>
+        <v>1205.67942717659</v>
       </c>
       <c r="Y45" t="n">
-        <v>1146.674573071598</v>
+        <v>999.9509914002402</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>50.7114319909132</v>
+        <v>349.6813215744672</v>
       </c>
       <c r="C46" t="n">
-        <v>50.7114319909132</v>
+        <v>349.6813215744672</v>
       </c>
       <c r="D46" t="n">
-        <v>50.7114319909132</v>
+        <v>199.170648327478</v>
       </c>
       <c r="E46" t="n">
-        <v>50.7114319909132</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="F46" t="n">
-        <v>50.7114319909132</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G46" t="n">
-        <v>50.7114319909132</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H46" t="n">
-        <v>50.7114319909132</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I46" t="n">
-        <v>50.7114319909132</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J46" t="n">
-        <v>50.7114319909132</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K46" t="n">
         <v>100.3216812543103</v>
       </c>
       <c r="L46" t="n">
-        <v>219.6093352368816</v>
+        <v>219.6093352368815</v>
       </c>
       <c r="M46" t="n">
-        <v>355.9743406206217</v>
+        <v>355.9743406206215</v>
       </c>
       <c r="N46" t="n">
-        <v>494.2381528619505</v>
+        <v>494.2381528619504</v>
       </c>
       <c r="O46" t="n">
-        <v>606.610565557885</v>
+        <v>606.6105655578849</v>
       </c>
       <c r="P46" t="n">
-        <v>679.5420961591336</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="Q46" t="n">
-        <v>679.5420961591336</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R46" t="n">
-        <v>679.5420961591336</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S46" t="n">
-        <v>679.5420961591336</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T46" t="n">
-        <v>679.5420961591336</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="U46" t="n">
-        <v>390.631179404566</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="V46" t="n">
-        <v>339.6938328872925</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="W46" t="n">
-        <v>50.7114319909132</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="X46" t="n">
-        <v>50.7114319909132</v>
+        <v>451.1174901669019</v>
       </c>
       <c r="Y46" t="n">
-        <v>50.7114319909132</v>
+        <v>349.6813215744672</v>
       </c>
     </row>
   </sheetData>
@@ -8066,19 +8066,19 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M3" t="n">
-        <v>138.5806830739679</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N3" t="n">
-        <v>344.2496456653007</v>
+        <v>258.5531625267515</v>
       </c>
       <c r="O3" t="n">
-        <v>409.6168120477987</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P3" t="n">
         <v>331.2012793855346</v>
       </c>
       <c r="Q3" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R3" t="n">
         <v>47.34253660377365</v>
@@ -8300,13 +8300,13 @@
         <v>275.0438464930818</v>
       </c>
       <c r="L6" t="n">
-        <v>327.5816281580458</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M6" t="n">
-        <v>138.5806830739679</v>
+        <v>272.7740099466066</v>
       </c>
       <c r="N6" t="n">
-        <v>402.3419766228525</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O6" t="n">
         <v>409.6168120477987</v>
@@ -8315,7 +8315,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q6" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R6" t="n">
         <v>47.34253660377365</v>
@@ -8537,13 +8537,13 @@
         <v>275.0438464930818</v>
       </c>
       <c r="L9" t="n">
-        <v>385.6739591155975</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M9" t="n">
-        <v>138.5806830739679</v>
+        <v>331.0717909466363</v>
       </c>
       <c r="N9" t="n">
-        <v>344.2496456653008</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O9" t="n">
         <v>409.6168120477987</v>
@@ -8789,7 +8789,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q12" t="n">
-        <v>102.8433479102859</v>
+        <v>102.843347910286</v>
       </c>
       <c r="R12" t="n">
         <v>47.34253660377365</v>
@@ -9005,10 +9005,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J15" t="n">
-        <v>60.72933541128934</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K15" t="n">
-        <v>275.0438464930818</v>
+        <v>256.0341459363813</v>
       </c>
       <c r="L15" t="n">
         <v>385.6739591155975</v>
@@ -9023,10 +9023,10 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P15" t="n">
-        <v>215.5642480505372</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q15" t="n">
-        <v>218.4803792452831</v>
+        <v>51.44770712425047</v>
       </c>
       <c r="R15" t="n">
         <v>47.34253660377365</v>
@@ -9242,10 +9242,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J18" t="n">
-        <v>112.1249761973246</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K18" t="n">
-        <v>275.0438464930818</v>
+        <v>89.00147381534887</v>
       </c>
       <c r="L18" t="n">
         <v>385.6739591155975</v>
@@ -9263,7 +9263,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q18" t="n">
-        <v>51.44770712425046</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R18" t="n">
         <v>47.34253660377365</v>
@@ -9479,7 +9479,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J21" t="n">
-        <v>60.72933541128936</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K21" t="n">
         <v>275.0438464930818</v>
@@ -9494,13 +9494,13 @@
         <v>498.5160693172957</v>
       </c>
       <c r="O21" t="n">
-        <v>409.6168120477987</v>
+        <v>223.5744393700659</v>
       </c>
       <c r="P21" t="n">
         <v>331.2012793855346</v>
       </c>
       <c r="Q21" t="n">
-        <v>102.843347910286</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R21" t="n">
         <v>47.34253660377365</v>
@@ -9716,10 +9716,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J24" t="n">
-        <v>60.72933541128936</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K24" t="n">
-        <v>275.0438464930818</v>
+        <v>89.00147381534887</v>
       </c>
       <c r="L24" t="n">
         <v>385.6739591155975</v>
@@ -9737,7 +9737,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q24" t="n">
-        <v>102.843347910286</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R24" t="n">
         <v>47.34253660377365</v>
@@ -9953,7 +9953,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J27" t="n">
-        <v>60.72933541128936</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K27" t="n">
         <v>275.0438464930818</v>
@@ -9965,7 +9965,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N27" t="n">
-        <v>498.5160693172957</v>
+        <v>312.4736966395628</v>
       </c>
       <c r="O27" t="n">
         <v>409.6168120477987</v>
@@ -9974,7 +9974,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q27" t="n">
-        <v>102.843347910286</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R27" t="n">
         <v>47.34253660377365</v>
@@ -10190,7 +10190,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J30" t="n">
-        <v>60.72933541128936</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K30" t="n">
         <v>275.0438464930818</v>
@@ -10202,7 +10202,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N30" t="n">
-        <v>382.8790379822985</v>
+        <v>312.4736966395628</v>
       </c>
       <c r="O30" t="n">
         <v>409.6168120477987</v>
@@ -10664,10 +10664,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J36" t="n">
-        <v>112.1249761973247</v>
+        <v>60.72933541128936</v>
       </c>
       <c r="K36" t="n">
-        <v>275.0438464930818</v>
+        <v>159.4068151580847</v>
       </c>
       <c r="L36" t="n">
         <v>385.6739591155975</v>
@@ -10685,7 +10685,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q36" t="n">
-        <v>51.44770712425047</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R36" t="n">
         <v>47.34253660377365</v>
@@ -10901,7 +10901,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J39" t="n">
-        <v>112.1249761973247</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K39" t="n">
         <v>275.0438464930818</v>
@@ -10913,7 +10913,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N39" t="n">
-        <v>498.5160693172957</v>
+        <v>312.4736966395628</v>
       </c>
       <c r="O39" t="n">
         <v>409.6168120477987</v>
@@ -10922,7 +10922,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q39" t="n">
-        <v>51.44770712425047</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R39" t="n">
         <v>47.34253660377365</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>175.8604797789567</v>
+        <v>175.8604797789566</v>
       </c>
       <c r="K41" t="n">
         <v>337.1112290740114</v>
@@ -11138,10 +11138,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J42" t="n">
-        <v>131.1346767540252</v>
+        <v>60.72933541128936</v>
       </c>
       <c r="K42" t="n">
-        <v>275.0438464930818</v>
+        <v>159.4068151580847</v>
       </c>
       <c r="L42" t="n">
         <v>385.6739591155975</v>
@@ -11150,7 +11150,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N42" t="n">
-        <v>312.4736966395631</v>
+        <v>498.5160693172957</v>
       </c>
       <c r="O42" t="n">
         <v>409.6168120477987</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>175.860479778957</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K44" t="n">
         <v>337.1112290740114</v>
@@ -11387,7 +11387,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N45" t="n">
-        <v>312.4736966395631</v>
+        <v>312.4736966395628</v>
       </c>
       <c r="O45" t="n">
         <v>409.6168120477987</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23269,16 +23269,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>8.540966011692205</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,13 +23305,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>63.64170646647294</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.3781599023558</v>
@@ -23320,10 +23320,10 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W11" t="n">
-        <v>350.5301170005546</v>
+        <v>198.7558177932336</v>
       </c>
       <c r="X11" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.6870717512358</v>
@@ -23351,13 +23351,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>41.22751706926219</v>
       </c>
       <c r="H12" t="n">
-        <v>81.68851577858739</v>
+        <v>104.0288287853823</v>
       </c>
       <c r="I12" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E13" t="n">
-        <v>146.9746241731992</v>
+        <v>96.54665112109852</v>
       </c>
       <c r="F13" t="n">
         <v>146.1590214098045</v>
@@ -23460,25 +23460,25 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>32.99521853687121</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>148.2796428708918</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.6245410698995</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.9462130081922</v>
       </c>
       <c r="U13" t="n">
-        <v>283.3250655463385</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W13" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>226.1403599323093</v>
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>333.9340427962902</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,13 +23542,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>63.64170646647293</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S14" t="n">
         <v>177.493467653868</v>
       </c>
       <c r="T14" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.3781599023558</v>
@@ -23560,10 +23560,10 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X14" t="n">
-        <v>370.8615991311694</v>
+        <v>86.05874804386121</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23591,10 +23591,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>81.6885157785874</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,10 +23621,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>53.33473024000173</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>91.92161561464282</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23664,19 +23664,19 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F16" t="n">
-        <v>33.93376427960212</v>
+        <v>95.73104835770384</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3311041893321</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.6686349500177</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>136.9633875020681</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>49.35397375491781</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>32.9952185368712</v>
+        <v>32.99521853687121</v>
       </c>
       <c r="R16" t="n">
         <v>148.2796428708918</v>
@@ -23709,13 +23709,13 @@
         <v>225.9462130081922</v>
       </c>
       <c r="U16" t="n">
-        <v>286.0218075870219</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W16" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>226.1403599323093</v>
@@ -23731,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>333.9340427962902</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,25 +23779,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>63.64170646647293</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>370.8615991311694</v>
+        <v>120.8452174041657</v>
       </c>
       <c r="Y17" t="n">
         <v>386.6870717512358</v>
@@ -23828,10 +23828,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>81.6885157785874</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>63.56783007605711</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23864,7 +23864,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>145.2563458546447</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>149.0055665145194</v>
+        <v>92.63212727763566</v>
       </c>
       <c r="E19" t="n">
         <v>146.9746241731992</v>
@@ -23913,7 +23913,7 @@
         <v>136.9633875020681</v>
       </c>
       <c r="J19" t="n">
-        <v>49.3539737549178</v>
+        <v>49.35397375491781</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,13 +23934,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>16.55431494374414</v>
+        <v>32.99521853687121</v>
       </c>
       <c r="R19" t="n">
         <v>148.2796428708918</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>212.6245410698995</v>
       </c>
       <c r="T19" t="n">
         <v>225.9462130081922</v>
@@ -23955,10 +23955,10 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23977,19 +23977,19 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E20" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.6097194764729</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -24025,19 +24025,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V20" t="n">
-        <v>149.5444816643456</v>
+        <v>221.2238380890792</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24062,13 +24062,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>41.22751706926219</v>
+        <v>81.6885157785874</v>
       </c>
       <c r="H21" t="n">
-        <v>104.0288287853823</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D22" t="n">
         <v>149.0055665145194</v>
@@ -24144,7 +24144,7 @@
         <v>167.3311041893321</v>
       </c>
       <c r="H22" t="n">
-        <v>108.6839047706372</v>
+        <v>156.6686349500177</v>
       </c>
       <c r="I22" t="n">
         <v>136.9633875020681</v>
@@ -24171,28 +24171,28 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>32.99521853687121</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>148.2796428708918</v>
       </c>
       <c r="S22" t="n">
         <v>212.6245410698995</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.9462130081922</v>
       </c>
       <c r="U22" t="n">
-        <v>286.0218075870219</v>
+        <v>175.7123868802086</v>
       </c>
       <c r="V22" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W22" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.7486738677682</v>
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C23" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E23" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>166.1328233885957</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,10 +24256,10 @@
         <v>63.64170646647294</v>
       </c>
       <c r="S23" t="n">
-        <v>177.493467653868</v>
+        <v>9.880332297637551</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U23" t="n">
         <v>251.3781599023558</v>
@@ -24305,7 +24305,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,10 +24332,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>53.33473024000174</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>28.35378553858567</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24350,7 +24350,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>145.2563458546446</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -24372,7 +24372,7 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F25" t="n">
         <v>146.1590214098045</v>
@@ -24381,13 +24381,13 @@
         <v>167.3311041893321</v>
       </c>
       <c r="H25" t="n">
-        <v>153.5108397410802</v>
+        <v>156.6686349500177</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>136.9633875020681</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>49.35397375491781</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24420,10 +24420,10 @@
         <v>225.9462130081922</v>
       </c>
       <c r="U25" t="n">
-        <v>286.0218075870219</v>
+        <v>202.5083780148385</v>
       </c>
       <c r="V25" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24454,16 +24454,16 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F26" t="n">
-        <v>222.0335201579811</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>126.4080704755528</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,10 +24496,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>328.5332215225193</v>
@@ -24536,13 +24536,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>135.3570519053243</v>
       </c>
       <c r="H27" t="n">
-        <v>81.68851577858739</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>63.56783007605712</v>
+        <v>9.899293949320239</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24603,10 +24603,10 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C28" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.9746241731992</v>
@@ -24615,7 +24615,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3311041893321</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>156.6686349500177</v>
@@ -24651,16 +24651,16 @@
         <v>148.2796428708918</v>
       </c>
       <c r="S28" t="n">
-        <v>68.96474761849271</v>
+        <v>212.6245410698995</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.9462130081922</v>
       </c>
       <c r="U28" t="n">
-        <v>286.0218075870219</v>
+        <v>147.1526736955376</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W28" t="n">
         <v>286.0925768874155</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C29" t="n">
         <v>366.9850956789426</v>
@@ -24688,19 +24688,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.6097194764729</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>37.12637062658246</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3781599023558</v>
+        <v>9.488279793122558</v>
       </c>
       <c r="V29" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X29" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24773,7 +24773,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>91.92161561464246</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -24806,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>53.33473024000174</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -24821,7 +24821,7 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>145.2563458546444</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -24840,19 +24840,19 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D31" t="n">
         <v>149.0055665145194</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F31" t="n">
         <v>146.1590214098045</v>
       </c>
       <c r="G31" t="n">
-        <v>71.72446483709493</v>
+        <v>167.3311041893321</v>
       </c>
       <c r="H31" t="n">
         <v>156.6686349500177</v>
@@ -24888,16 +24888,16 @@
         <v>148.2796428708918</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>212.6245410698995</v>
       </c>
       <c r="T31" t="n">
-        <v>225.9462130081922</v>
+        <v>142.3620141356151</v>
       </c>
       <c r="U31" t="n">
-        <v>286.0218075870219</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.0925768874155</v>
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E32" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>315.9019358523183</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W32" t="n">
-        <v>232.6013698112475</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X32" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25013,10 +25013,10 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>104.0288287853823</v>
+        <v>81.6885157785874</v>
       </c>
       <c r="I33" t="n">
-        <v>41.22751706926216</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3311041893321</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>156.6686349500177</v>
+        <v>64.36698212307198</v>
       </c>
       <c r="I34" t="n">
-        <v>136.9633875020681</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>49.35397375491781</v>
@@ -25119,16 +25119,16 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>32.99521853687121</v>
       </c>
       <c r="R34" t="n">
-        <v>70.61482333199667</v>
+        <v>148.2796428708918</v>
       </c>
       <c r="S34" t="n">
         <v>212.6245410698995</v>
       </c>
       <c r="T34" t="n">
-        <v>225.9462130081922</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.0218075870219</v>
@@ -25143,7 +25143,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="35">
@@ -25156,25 +25156,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>295.482168639867</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>158.3783156644745</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25213,13 +25213,13 @@
         <v>251.3781599023558</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W35" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.6870717512358</v>
@@ -25241,7 +25241,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>145.2563458546446</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -25283,7 +25283,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>145.2563458546447</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.3365529312023</v>
@@ -25323,13 +25323,13 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F37" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>146.1522684887721</v>
+        <v>167.3311041893321</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>156.6686349500177</v>
       </c>
       <c r="I37" t="n">
         <v>136.9633875020681</v>
@@ -25365,7 +25365,7 @@
         <v>212.6245410698995</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.9462130081922</v>
       </c>
       <c r="U37" t="n">
         <v>286.0218075870219</v>
@@ -25377,7 +25377,7 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X37" t="n">
-        <v>226.1403599323093</v>
+        <v>148.5893891740277</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25405,10 +25405,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H38" t="n">
-        <v>179.6800298024776</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I38" t="n">
         <v>157.2246747536534</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>63.64170646647294</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>177.493467653868</v>
@@ -25450,16 +25450,16 @@
         <v>251.3781599023558</v>
       </c>
       <c r="V38" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>350.5301170005546</v>
       </c>
       <c r="X38" t="n">
-        <v>370.8615991311694</v>
+        <v>200.7430989017271</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="39">
@@ -25487,10 +25487,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>81.6885157785874</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,10 +25517,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>53.33473024000174</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>91.92161561464282</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25563,10 +25563,10 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3311041893321</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>156.6686349500177</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>136.9633875020681</v>
@@ -25602,13 +25602,13 @@
         <v>212.6245410698995</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>213.4254022080258</v>
       </c>
       <c r="U40" t="n">
-        <v>142.3620141356152</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W40" t="n">
         <v>286.0925768874155</v>
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>383.1180357552875</v>
+        <v>138.4914961839845</v>
       </c>
       <c r="F41" t="n">
-        <v>202.9667164013812</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>63.64170646647293</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S41" t="n">
         <v>177.493467653868</v>
@@ -25684,7 +25684,7 @@
         <v>217.5149286494106</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V41" t="n">
         <v>328.5332215225193</v>
@@ -25709,7 +25709,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>81.688515778587</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -25727,7 +25727,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>63.56783007605711</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25772,7 +25772,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>145.2563458546446</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25794,13 +25794,13 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E43" t="n">
-        <v>140.2127170676547</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3311041893321</v>
       </c>
       <c r="H43" t="n">
         <v>156.6686349500177</v>
@@ -25809,7 +25809,7 @@
         <v>136.9633875020681</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>49.35397375491781</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,25 +25830,25 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>32.9952185368712</v>
+        <v>32.99521853687121</v>
       </c>
       <c r="R43" t="n">
         <v>148.2796428708918</v>
       </c>
       <c r="S43" t="n">
-        <v>212.6245410698995</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>225.9462130081922</v>
       </c>
       <c r="U43" t="n">
-        <v>286.0218075870219</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W43" t="n">
-        <v>286.0925768874155</v>
+        <v>162.1965680177988</v>
       </c>
       <c r="X43" t="n">
         <v>226.1403599323093</v>
@@ -25873,19 +25873,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G44" t="n">
-        <v>132.8397231815217</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H44" t="n">
         <v>325.3930767845979</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>63.64170646647293</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T44" t="n">
         <v>217.5149286494106</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3781599023558</v>
+        <v>82.6497634216438</v>
       </c>
       <c r="V44" t="n">
         <v>328.5332215225193</v>
@@ -25958,13 +25958,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>81.6885157785874</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25994,7 +25994,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>145.2563458546443</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26028,10 +26028,10 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D46" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>146.1590214098045</v>
@@ -26046,7 +26046,7 @@
         <v>136.9633875020681</v>
       </c>
       <c r="J46" t="n">
-        <v>49.3539737549178</v>
+        <v>49.35397375491781</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,7 +26067,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>32.9952185368712</v>
+        <v>32.99521853687121</v>
       </c>
       <c r="R46" t="n">
         <v>148.2796428708918</v>
@@ -26079,19 +26079,19 @@
         <v>225.9462130081922</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V46" t="n">
-        <v>202.5083780148384</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X46" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.7486738677682</v>
+        <v>118.3268669612579</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>621858.9235716007</v>
+        <v>621858.9235716008</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>621858.9235716005</v>
+        <v>621858.9235716008</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>621858.9235716007</v>
+        <v>621858.9235716008</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>621858.9235716007</v>
+        <v>621858.9235716008</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>621858.9235716008</v>
+        <v>621858.9235716009</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>621858.9235716009</v>
+        <v>621858.9235716007</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>621858.9235716009</v>
+        <v>621858.9235716008</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>621858.9235716006</v>
+        <v>621858.9235716007</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>621858.9235716006</v>
+        <v>621858.9235716007</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>621858.9235716007</v>
+        <v>621858.9235716008</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>621858.9235716009</v>
+        <v>621858.9235716007</v>
       </c>
     </row>
   </sheetData>
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>529047.6155997086</v>
+        <v>529047.6155997087</v>
       </c>
       <c r="C2" t="n">
         <v>529047.6155997087</v>
       </c>
       <c r="D2" t="n">
-        <v>529047.615599709</v>
+        <v>529047.6155997087</v>
       </c>
       <c r="E2" t="n">
-        <v>356652.370142603</v>
+        <v>356652.3701426027</v>
       </c>
       <c r="F2" t="n">
+        <v>356652.3701426027</v>
+      </c>
+      <c r="G2" t="n">
+        <v>356652.3701426026</v>
+      </c>
+      <c r="H2" t="n">
+        <v>356652.3701426027</v>
+      </c>
+      <c r="I2" t="n">
+        <v>356652.3701426027</v>
+      </c>
+      <c r="J2" t="n">
+        <v>356652.3701426026</v>
+      </c>
+      <c r="K2" t="n">
         <v>356652.3701426028</v>
-      </c>
-      <c r="G2" t="n">
-        <v>356652.3701426028</v>
-      </c>
-      <c r="H2" t="n">
-        <v>356652.3701426028</v>
-      </c>
-      <c r="I2" t="n">
-        <v>356652.3701426028</v>
-      </c>
-      <c r="J2" t="n">
-        <v>356652.3701426028</v>
-      </c>
-      <c r="K2" t="n">
-        <v>356652.3701426029</v>
       </c>
       <c r="L2" t="n">
         <v>356652.3701426028</v>
@@ -26349,7 +26349,7 @@
         <v>356652.3701426027</v>
       </c>
       <c r="N2" t="n">
-        <v>356652.3701426027</v>
+        <v>356652.3701426029</v>
       </c>
       <c r="O2" t="n">
         <v>356652.3701426029</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91918.81236773985</v>
+        <v>91918.81236773984</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>89616.02429853742</v>
+        <v>89616.02429853744</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>284530.0264572389</v>
       </c>
       <c r="C4" t="n">
-        <v>284530.026457239</v>
+        <v>284530.0264572389</v>
       </c>
       <c r="D4" t="n">
         <v>284530.0264572389</v>
@@ -26429,19 +26429,19 @@
         <v>18775.56330614277</v>
       </c>
       <c r="F4" t="n">
-        <v>18775.56330614277</v>
+        <v>18775.56330614278</v>
       </c>
       <c r="G4" t="n">
-        <v>18775.56330614277</v>
+        <v>18775.56330614278</v>
       </c>
       <c r="H4" t="n">
-        <v>18775.56330614277</v>
+        <v>18775.56330614278</v>
       </c>
       <c r="I4" t="n">
-        <v>18775.56330614277</v>
+        <v>18775.56330614278</v>
       </c>
       <c r="J4" t="n">
-        <v>18775.56330614277</v>
+        <v>18775.56330614278</v>
       </c>
       <c r="K4" t="n">
         <v>18775.56330614278</v>
@@ -26450,10 +26450,10 @@
         <v>18775.56330614277</v>
       </c>
       <c r="M4" t="n">
-        <v>18775.56330614277</v>
+        <v>18775.56330614278</v>
       </c>
       <c r="N4" t="n">
-        <v>18775.56330614277</v>
+        <v>18775.56330614278</v>
       </c>
       <c r="O4" t="n">
         <v>18775.56330614278</v>
@@ -26508,10 +26508,10 @@
         <v>45292.2611156748</v>
       </c>
       <c r="O5" t="n">
-        <v>45292.26111567481</v>
+        <v>45292.2611156748</v>
       </c>
       <c r="P5" t="n">
-        <v>45292.26111567481</v>
+        <v>45292.2611156748</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>102294.7212883604</v>
+        <v>102294.7212883605</v>
       </c>
       <c r="C6" t="n">
-        <v>194213.5336561003</v>
+        <v>194213.5336561004</v>
       </c>
       <c r="D6" t="n">
-        <v>194213.5336561006</v>
+        <v>194213.5336561004</v>
       </c>
       <c r="E6" t="n">
-        <v>-63604.88416589471</v>
+        <v>-70235.47052962998</v>
       </c>
       <c r="F6" t="n">
-        <v>292584.5457207852</v>
+        <v>285953.9593570503</v>
       </c>
       <c r="G6" t="n">
-        <v>292584.5457207852</v>
+        <v>285953.9593570502</v>
       </c>
       <c r="H6" t="n">
-        <v>292584.5457207853</v>
+        <v>285953.9593570503</v>
       </c>
       <c r="I6" t="n">
-        <v>292584.5457207853</v>
+        <v>285953.9593570502</v>
       </c>
       <c r="J6" t="n">
-        <v>220819.833232699</v>
+        <v>214189.2468689639</v>
       </c>
       <c r="K6" t="n">
-        <v>292584.5457207854</v>
+        <v>285953.9593570504</v>
       </c>
       <c r="L6" t="n">
-        <v>292584.5457207852</v>
+        <v>285953.9593570504</v>
       </c>
       <c r="M6" t="n">
-        <v>202968.5214222477</v>
+        <v>196337.9350585129</v>
       </c>
       <c r="N6" t="n">
-        <v>292584.5457207852</v>
+        <v>285953.9593570505</v>
       </c>
       <c r="O6" t="n">
-        <v>292584.5457207853</v>
+        <v>285953.9593570505</v>
       </c>
       <c r="P6" t="n">
-        <v>292584.5457207853</v>
+        <v>285953.9593570505</v>
       </c>
     </row>
   </sheetData>
@@ -26749,10 +26749,10 @@
         <v>309.705174430311</v>
       </c>
       <c r="F3" t="n">
-        <v>309.7051744303111</v>
+        <v>309.705174430311</v>
       </c>
       <c r="G3" t="n">
-        <v>309.7051744303111</v>
+        <v>309.705174430311</v>
       </c>
       <c r="H3" t="n">
         <v>309.705174430311</v>
@@ -26776,10 +26776,10 @@
         <v>309.705174430311</v>
       </c>
       <c r="O3" t="n">
-        <v>309.7051744303111</v>
+        <v>309.705174430311</v>
       </c>
       <c r="P3" t="n">
-        <v>309.7051744303111</v>
+        <v>309.705174430311</v>
       </c>
     </row>
     <row r="4">
@@ -26828,10 +26828,10 @@
         <v>633.8928998864149</v>
       </c>
       <c r="O4" t="n">
-        <v>633.892899886415</v>
+        <v>633.8928998864149</v>
       </c>
       <c r="P4" t="n">
-        <v>633.892899886415</v>
+        <v>633.8928998864149</v>
       </c>
     </row>
   </sheetData>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>359.6090925448123</v>
+        <v>359.6090925448124</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>359.6090925448123</v>
+        <v>359.6090925448124</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,16 +27381,16 @@
         <v>383.716409991395</v>
       </c>
       <c r="C2" t="n">
-        <v>92.70128833734015</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D2" t="n">
-        <v>82.3209254129959</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E2" t="n">
-        <v>108.834228413685</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F2" t="n">
-        <v>180.5594513778885</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,10 +27399,10 @@
         <v>338.1439033881534</v>
       </c>
       <c r="I2" t="n">
-        <v>205.224307868124</v>
+        <v>54.16912517121176</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27426,19 +27426,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>205.8649517235392</v>
       </c>
       <c r="T2" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>328.5332215225193</v>
+        <v>54.24941418091686</v>
       </c>
       <c r="W2" t="n">
         <v>350.5301170005546</v>
@@ -27457,25 +27457,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165.3721256103448</v>
+        <v>9.270238120519366</v>
       </c>
       <c r="C3" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>136.0232102050423</v>
       </c>
       <c r="H3" t="n">
-        <v>51.13049313817427</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27508,16 +27508,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W3" t="n">
         <v>249.98934675</v>
@@ -27554,16 +27554,16 @@
         <v>167.8895889301081</v>
       </c>
       <c r="H4" t="n">
-        <v>161.6340720089168</v>
+        <v>86.33420001292077</v>
       </c>
       <c r="I4" t="n">
         <v>153.7585467974036</v>
       </c>
       <c r="J4" t="n">
-        <v>88.83884492777894</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27587,7 +27587,7 @@
         <v>173.3911476697823</v>
       </c>
       <c r="S4" t="n">
-        <v>43.44428031981417</v>
+        <v>222.3574069614225</v>
       </c>
       <c r="T4" t="n">
         <v>228.3324659915077</v>
@@ -27618,7 +27618,7 @@
         <v>383.716409991395</v>
       </c>
       <c r="C5" t="n">
-        <v>274.5406043538773</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D5" t="n">
         <v>356.6047327545984</v>
@@ -27630,16 +27630,16 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>140.5709580622284</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>63.86009604655089</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I5" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S5" t="n">
         <v>205.8649517235392</v>
@@ -27678,13 +27678,13 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W5" t="n">
-        <v>350.5301170005546</v>
+        <v>336.9731533811294</v>
       </c>
       <c r="X5" t="n">
-        <v>370.8615991311694</v>
+        <v>96.5777917895669</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.6870717512358</v>
+        <v>112.4032644096333</v>
       </c>
     </row>
     <row r="6">
@@ -27697,25 +27697,25 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C6" t="n">
-        <v>171.025583927401</v>
+        <v>148.8829366208612</v>
       </c>
       <c r="D6" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,22 +27742,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>9.458801139478624</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X6" t="n">
         <v>204.4616296084783</v>
@@ -27797,10 +27797,10 @@
         <v>153.7585467974036</v>
       </c>
       <c r="J7" t="n">
-        <v>88.83884492777894</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>79.76069987584818</v>
+        <v>4.460827879852118</v>
       </c>
       <c r="R7" t="n">
         <v>173.3911476697823</v>
       </c>
       <c r="S7" t="n">
-        <v>43.44428031981417</v>
+        <v>222.3574069614225</v>
       </c>
       <c r="T7" t="n">
         <v>228.3324659915077</v>
@@ -27870,13 +27870,13 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>338.1439033881534</v>
+        <v>63.86009604655089</v>
       </c>
       <c r="I8" t="n">
         <v>205.224307868124</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>222.9651171964204</v>
@@ -27912,13 +27912,13 @@
         <v>251.4777635765444</v>
       </c>
       <c r="V8" t="n">
-        <v>54.2494141809168</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W8" t="n">
-        <v>76.24630965895204</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X8" t="n">
-        <v>151.4210505090579</v>
+        <v>225.512294726434</v>
       </c>
       <c r="Y8" t="n">
         <v>112.4032644096333</v>
@@ -27931,28 +27931,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>165.3721256103448</v>
+        <v>50.59846856447039</v>
       </c>
       <c r="C9" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27982,19 +27982,19 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S9" t="n">
-        <v>9.458801139478396</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X9" t="n">
         <v>204.4616296084783</v>
@@ -28022,10 +28022,10 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G10" t="n">
-        <v>135.1354836983042</v>
+        <v>167.8895889301081</v>
       </c>
       <c r="H10" t="n">
         <v>161.6340720089168</v>
@@ -28034,10 +28034,10 @@
         <v>153.7585467974036</v>
       </c>
       <c r="J10" t="n">
-        <v>88.83884492777894</v>
+        <v>4.460827879852118</v>
       </c>
       <c r="K10" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>79.76069987584818</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>173.3911476697823</v>
@@ -31989,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.245045927358034</v>
+        <v>1.245045927358033</v>
       </c>
       <c r="H14" t="n">
-        <v>12.75082660355547</v>
+        <v>12.75082660355546</v>
       </c>
       <c r="I14" t="n">
-        <v>47.99963311447064</v>
+        <v>47.99963311447063</v>
       </c>
       <c r="J14" t="n">
         <v>105.671716777104</v>
@@ -32004,10 +32004,10 @@
         <v>158.3745108821696</v>
       </c>
       <c r="L14" t="n">
-        <v>196.4775851815531</v>
+        <v>196.477585181553</v>
       </c>
       <c r="M14" t="n">
-        <v>218.6191706922065</v>
+        <v>218.6191706922064</v>
       </c>
       <c r="N14" t="n">
         <v>222.1566574333125</v>
@@ -32016,22 +32016,22 @@
         <v>209.776231993146</v>
       </c>
       <c r="P14" t="n">
-        <v>179.0391606614946</v>
+        <v>179.0391606614945</v>
       </c>
       <c r="Q14" t="n">
-        <v>134.450953387985</v>
+        <v>134.4509533879849</v>
       </c>
       <c r="R14" t="n">
-        <v>78.20911623440415</v>
+        <v>78.20911623440414</v>
       </c>
       <c r="S14" t="n">
         <v>28.37148406967122</v>
       </c>
       <c r="T14" t="n">
-        <v>5.450188547009795</v>
+        <v>5.450188547009794</v>
       </c>
       <c r="U14" t="n">
-        <v>0.09960367418864267</v>
+        <v>0.09960367418864266</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6661582997180276</v>
+        <v>0.6661582997180275</v>
       </c>
       <c r="H15" t="n">
-        <v>6.433686736750426</v>
+        <v>6.433686736750425</v>
       </c>
       <c r="I15" t="n">
         <v>22.93571338941455</v>
       </c>
       <c r="J15" t="n">
-        <v>62.93735058871069</v>
+        <v>62.93735058871067</v>
       </c>
       <c r="K15" t="n">
         <v>107.5699566698185</v>
@@ -32089,7 +32089,7 @@
         <v>168.7893200645195</v>
       </c>
       <c r="N15" t="n">
-        <v>173.2566711183304</v>
+        <v>173.2566711183303</v>
       </c>
       <c r="O15" t="n">
         <v>158.4960056351046</v>
@@ -32098,19 +32098,19 @@
         <v>127.2070177768574</v>
       </c>
       <c r="Q15" t="n">
-        <v>85.03452260962052</v>
+        <v>85.03452260962051</v>
       </c>
       <c r="R15" t="n">
-        <v>41.36024952108949</v>
+        <v>41.36024952108948</v>
       </c>
       <c r="S15" t="n">
-        <v>12.3735982425695</v>
+        <v>12.37359824256949</v>
       </c>
       <c r="T15" t="n">
-        <v>2.685085427372225</v>
+        <v>2.685085427372224</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04382620392881763</v>
+        <v>0.04382620392881762</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5584847407759708</v>
+        <v>0.5584847407759707</v>
       </c>
       <c r="H16" t="n">
-        <v>4.96543705889909</v>
+        <v>4.965437058899089</v>
       </c>
       <c r="I16" t="n">
         <v>16.79515929533556</v>
@@ -32159,37 +32159,37 @@
         <v>39.48487117286113</v>
       </c>
       <c r="K16" t="n">
-        <v>64.88577261015368</v>
+        <v>64.88577261015367</v>
       </c>
       <c r="L16" t="n">
-        <v>83.03144955136571</v>
+        <v>83.0314495513657</v>
       </c>
       <c r="M16" t="n">
-        <v>87.54502168363693</v>
+        <v>87.54502168363692</v>
       </c>
       <c r="N16" t="n">
-        <v>85.46339674074476</v>
+        <v>85.46339674074474</v>
       </c>
       <c r="O16" t="n">
-        <v>78.93927954167997</v>
+        <v>78.93927954167995</v>
       </c>
       <c r="P16" t="n">
-        <v>67.54619082985012</v>
+        <v>67.5461908298501</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.76548133897698</v>
+        <v>46.76548133897697</v>
       </c>
       <c r="R16" t="n">
         <v>25.11150479889046</v>
       </c>
       <c r="S16" t="n">
-        <v>9.732865891523051</v>
+        <v>9.732865891523049</v>
       </c>
       <c r="T16" t="n">
         <v>2.386252983315511</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03046280404232572</v>
+        <v>0.03046280404232571</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.245045927358034</v>
+        <v>1.245045927358033</v>
       </c>
       <c r="H17" t="n">
-        <v>12.75082660355547</v>
+        <v>12.75082660355546</v>
       </c>
       <c r="I17" t="n">
-        <v>47.99963311447064</v>
+        <v>47.99963311447063</v>
       </c>
       <c r="J17" t="n">
         <v>105.671716777104</v>
@@ -32241,10 +32241,10 @@
         <v>158.3745108821696</v>
       </c>
       <c r="L17" t="n">
-        <v>196.4775851815531</v>
+        <v>196.477585181553</v>
       </c>
       <c r="M17" t="n">
-        <v>218.6191706922065</v>
+        <v>218.6191706922064</v>
       </c>
       <c r="N17" t="n">
         <v>222.1566574333125</v>
@@ -32253,22 +32253,22 @@
         <v>209.776231993146</v>
       </c>
       <c r="P17" t="n">
-        <v>179.0391606614946</v>
+        <v>179.0391606614945</v>
       </c>
       <c r="Q17" t="n">
-        <v>134.450953387985</v>
+        <v>134.4509533879849</v>
       </c>
       <c r="R17" t="n">
-        <v>78.20911623440415</v>
+        <v>78.20911623440414</v>
       </c>
       <c r="S17" t="n">
         <v>28.37148406967122</v>
       </c>
       <c r="T17" t="n">
-        <v>5.450188547009795</v>
+        <v>5.450188547009794</v>
       </c>
       <c r="U17" t="n">
-        <v>0.09960367418864267</v>
+        <v>0.09960367418864266</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6661582997180276</v>
+        <v>0.6661582997180275</v>
       </c>
       <c r="H18" t="n">
-        <v>6.433686736750426</v>
+        <v>6.433686736750425</v>
       </c>
       <c r="I18" t="n">
         <v>22.93571338941455</v>
       </c>
       <c r="J18" t="n">
-        <v>62.93735058871069</v>
+        <v>62.93735058871067</v>
       </c>
       <c r="K18" t="n">
         <v>107.5699566698185</v>
@@ -32326,7 +32326,7 @@
         <v>168.7893200645195</v>
       </c>
       <c r="N18" t="n">
-        <v>173.2566711183304</v>
+        <v>173.2566711183303</v>
       </c>
       <c r="O18" t="n">
         <v>158.4960056351046</v>
@@ -32335,19 +32335,19 @@
         <v>127.2070177768574</v>
       </c>
       <c r="Q18" t="n">
-        <v>85.03452260962052</v>
+        <v>85.03452260962051</v>
       </c>
       <c r="R18" t="n">
-        <v>41.36024952108949</v>
+        <v>41.36024952108948</v>
       </c>
       <c r="S18" t="n">
-        <v>12.3735982425695</v>
+        <v>12.37359824256949</v>
       </c>
       <c r="T18" t="n">
-        <v>2.685085427372225</v>
+        <v>2.685085427372224</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04382620392881763</v>
+        <v>0.04382620392881762</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5584847407759708</v>
+        <v>0.5584847407759707</v>
       </c>
       <c r="H19" t="n">
-        <v>4.96543705889909</v>
+        <v>4.965437058899089</v>
       </c>
       <c r="I19" t="n">
         <v>16.79515929533556</v>
@@ -32396,37 +32396,37 @@
         <v>39.48487117286113</v>
       </c>
       <c r="K19" t="n">
-        <v>64.88577261015368</v>
+        <v>64.88577261015367</v>
       </c>
       <c r="L19" t="n">
-        <v>83.03144955136571</v>
+        <v>83.0314495513657</v>
       </c>
       <c r="M19" t="n">
-        <v>87.54502168363693</v>
+        <v>87.54502168363692</v>
       </c>
       <c r="N19" t="n">
-        <v>85.46339674074476</v>
+        <v>85.46339674074474</v>
       </c>
       <c r="O19" t="n">
-        <v>78.93927954167997</v>
+        <v>78.93927954167995</v>
       </c>
       <c r="P19" t="n">
-        <v>67.54619082985012</v>
+        <v>67.5461908298501</v>
       </c>
       <c r="Q19" t="n">
-        <v>46.76548133897698</v>
+        <v>46.76548133897697</v>
       </c>
       <c r="R19" t="n">
         <v>25.11150479889046</v>
       </c>
       <c r="S19" t="n">
-        <v>9.732865891523051</v>
+        <v>9.732865891523049</v>
       </c>
       <c r="T19" t="n">
         <v>2.386252983315511</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03046280404232572</v>
+        <v>0.03046280404232571</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34122,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.245045927358034</v>
+        <v>1.245045927358033</v>
       </c>
       <c r="H41" t="n">
-        <v>12.75082660355547</v>
+        <v>12.75082660355546</v>
       </c>
       <c r="I41" t="n">
-        <v>47.99963311447064</v>
+        <v>47.99963311447063</v>
       </c>
       <c r="J41" t="n">
         <v>105.671716777104</v>
@@ -34137,10 +34137,10 @@
         <v>158.3745108821696</v>
       </c>
       <c r="L41" t="n">
-        <v>196.4775851815531</v>
+        <v>196.477585181553</v>
       </c>
       <c r="M41" t="n">
-        <v>218.6191706922065</v>
+        <v>218.6191706922064</v>
       </c>
       <c r="N41" t="n">
         <v>222.1566574333125</v>
@@ -34149,22 +34149,22 @@
         <v>209.776231993146</v>
       </c>
       <c r="P41" t="n">
-        <v>179.0391606614946</v>
+        <v>179.0391606614945</v>
       </c>
       <c r="Q41" t="n">
-        <v>134.450953387985</v>
+        <v>134.4509533879849</v>
       </c>
       <c r="R41" t="n">
-        <v>78.20911623440415</v>
+        <v>78.20911623440414</v>
       </c>
       <c r="S41" t="n">
         <v>28.37148406967122</v>
       </c>
       <c r="T41" t="n">
-        <v>5.450188547009795</v>
+        <v>5.450188547009794</v>
       </c>
       <c r="U41" t="n">
-        <v>0.09960367418864267</v>
+        <v>0.09960367418864266</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6661582997180276</v>
+        <v>0.6661582997180275</v>
       </c>
       <c r="H42" t="n">
-        <v>6.433686736750426</v>
+        <v>6.433686736750425</v>
       </c>
       <c r="I42" t="n">
         <v>22.93571338941455</v>
       </c>
       <c r="J42" t="n">
-        <v>62.93735058871069</v>
+        <v>62.93735058871067</v>
       </c>
       <c r="K42" t="n">
         <v>107.5699566698185</v>
@@ -34222,7 +34222,7 @@
         <v>168.7893200645195</v>
       </c>
       <c r="N42" t="n">
-        <v>173.2566711183304</v>
+        <v>173.2566711183303</v>
       </c>
       <c r="O42" t="n">
         <v>158.4960056351046</v>
@@ -34231,19 +34231,19 @@
         <v>127.2070177768574</v>
       </c>
       <c r="Q42" t="n">
-        <v>85.03452260962052</v>
+        <v>85.03452260962051</v>
       </c>
       <c r="R42" t="n">
-        <v>41.36024952108949</v>
+        <v>41.36024952108948</v>
       </c>
       <c r="S42" t="n">
-        <v>12.3735982425695</v>
+        <v>12.37359824256949</v>
       </c>
       <c r="T42" t="n">
-        <v>2.685085427372225</v>
+        <v>2.685085427372224</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04382620392881763</v>
+        <v>0.04382620392881762</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,10 +34280,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5584847407759708</v>
+        <v>0.5584847407759707</v>
       </c>
       <c r="H43" t="n">
-        <v>4.96543705889909</v>
+        <v>4.965437058899089</v>
       </c>
       <c r="I43" t="n">
         <v>16.79515929533556</v>
@@ -34292,37 +34292,37 @@
         <v>39.48487117286113</v>
       </c>
       <c r="K43" t="n">
-        <v>64.88577261015368</v>
+        <v>64.88577261015367</v>
       </c>
       <c r="L43" t="n">
-        <v>83.03144955136571</v>
+        <v>83.0314495513657</v>
       </c>
       <c r="M43" t="n">
-        <v>87.54502168363693</v>
+        <v>87.54502168363692</v>
       </c>
       <c r="N43" t="n">
-        <v>85.46339674074476</v>
+        <v>85.46339674074474</v>
       </c>
       <c r="O43" t="n">
-        <v>78.93927954167997</v>
+        <v>78.93927954167995</v>
       </c>
       <c r="P43" t="n">
-        <v>67.54619082985012</v>
+        <v>67.5461908298501</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.76548133897698</v>
+        <v>46.76548133897697</v>
       </c>
       <c r="R43" t="n">
         <v>25.11150479889046</v>
       </c>
       <c r="S43" t="n">
-        <v>9.732865891523051</v>
+        <v>9.732865891523049</v>
       </c>
       <c r="T43" t="n">
         <v>2.386252983315511</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03046280404232572</v>
+        <v>0.03046280404232571</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,13 +34359,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.245045927358034</v>
+        <v>1.245045927358033</v>
       </c>
       <c r="H44" t="n">
-        <v>12.75082660355547</v>
+        <v>12.75082660355546</v>
       </c>
       <c r="I44" t="n">
-        <v>47.99963311447064</v>
+        <v>47.99963311447063</v>
       </c>
       <c r="J44" t="n">
         <v>105.671716777104</v>
@@ -34374,10 +34374,10 @@
         <v>158.3745108821696</v>
       </c>
       <c r="L44" t="n">
-        <v>196.4775851815531</v>
+        <v>196.477585181553</v>
       </c>
       <c r="M44" t="n">
-        <v>218.6191706922065</v>
+        <v>218.6191706922064</v>
       </c>
       <c r="N44" t="n">
         <v>222.1566574333125</v>
@@ -34386,22 +34386,22 @@
         <v>209.776231993146</v>
       </c>
       <c r="P44" t="n">
-        <v>179.0391606614946</v>
+        <v>179.0391606614945</v>
       </c>
       <c r="Q44" t="n">
-        <v>134.450953387985</v>
+        <v>134.4509533879849</v>
       </c>
       <c r="R44" t="n">
-        <v>78.20911623440415</v>
+        <v>78.20911623440414</v>
       </c>
       <c r="S44" t="n">
         <v>28.37148406967122</v>
       </c>
       <c r="T44" t="n">
-        <v>5.450188547009795</v>
+        <v>5.450188547009794</v>
       </c>
       <c r="U44" t="n">
-        <v>0.09960367418864267</v>
+        <v>0.09960367418864266</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6661582997180276</v>
+        <v>0.6661582997180275</v>
       </c>
       <c r="H45" t="n">
-        <v>6.433686736750426</v>
+        <v>6.433686736750425</v>
       </c>
       <c r="I45" t="n">
         <v>22.93571338941455</v>
       </c>
       <c r="J45" t="n">
-        <v>62.93735058871069</v>
+        <v>62.93735058871067</v>
       </c>
       <c r="K45" t="n">
         <v>107.5699566698185</v>
@@ -34459,7 +34459,7 @@
         <v>168.7893200645195</v>
       </c>
       <c r="N45" t="n">
-        <v>173.2566711183304</v>
+        <v>173.2566711183303</v>
       </c>
       <c r="O45" t="n">
         <v>158.4960056351046</v>
@@ -34468,19 +34468,19 @@
         <v>127.2070177768574</v>
       </c>
       <c r="Q45" t="n">
-        <v>85.03452260962052</v>
+        <v>85.03452260962051</v>
       </c>
       <c r="R45" t="n">
-        <v>41.36024952108949</v>
+        <v>41.36024952108948</v>
       </c>
       <c r="S45" t="n">
-        <v>12.3735982425695</v>
+        <v>12.37359824256949</v>
       </c>
       <c r="T45" t="n">
-        <v>2.685085427372225</v>
+        <v>2.685085427372224</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04382620392881763</v>
+        <v>0.04382620392881762</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,10 +34517,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5584847407759708</v>
+        <v>0.5584847407759707</v>
       </c>
       <c r="H46" t="n">
-        <v>4.96543705889909</v>
+        <v>4.965437058899089</v>
       </c>
       <c r="I46" t="n">
         <v>16.79515929533556</v>
@@ -34529,37 +34529,37 @@
         <v>39.48487117286113</v>
       </c>
       <c r="K46" t="n">
-        <v>64.88577261015368</v>
+        <v>64.88577261015367</v>
       </c>
       <c r="L46" t="n">
-        <v>83.03144955136571</v>
+        <v>83.0314495513657</v>
       </c>
       <c r="M46" t="n">
-        <v>87.54502168363693</v>
+        <v>87.54502168363692</v>
       </c>
       <c r="N46" t="n">
-        <v>85.46339674074476</v>
+        <v>85.46339674074474</v>
       </c>
       <c r="O46" t="n">
-        <v>78.93927954167997</v>
+        <v>78.93927954167995</v>
       </c>
       <c r="P46" t="n">
-        <v>67.54619082985012</v>
+        <v>67.5461908298501</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.76548133897698</v>
+        <v>46.76548133897697</v>
       </c>
       <c r="R46" t="n">
         <v>25.11150479889046</v>
       </c>
       <c r="S46" t="n">
-        <v>9.732865891523051</v>
+        <v>9.732865891523049</v>
       </c>
       <c r="T46" t="n">
         <v>2.386252983315511</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03046280404232572</v>
+        <v>0.03046280404232571</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34786,19 +34786,19 @@
         <v>250.5834388302202</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N3" t="n">
-        <v>216.1914763840507</v>
+        <v>130.4949932455015</v>
       </c>
       <c r="O3" t="n">
-        <v>270.5854737144654</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>200.5762321565626</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35020,13 +35020,13 @@
         <v>140.6484434930818</v>
       </c>
       <c r="L6" t="n">
-        <v>192.4911078726684</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>134.1933268726387</v>
       </c>
       <c r="N6" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>270.5854737144654</v>
@@ -35035,7 +35035,7 @@
         <v>200.5762321565626</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35257,13 +35257,13 @@
         <v>140.6484434930818</v>
       </c>
       <c r="L9" t="n">
-        <v>250.5834388302202</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>192.4911078726684</v>
       </c>
       <c r="N9" t="n">
-        <v>216.1914763840509</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O9" t="n">
         <v>270.5854737144654</v>
@@ -35655,19 +35655,19 @@
         <v>400.9729937182839</v>
       </c>
       <c r="M14" t="n">
-        <v>461.5256681281614</v>
+        <v>461.5256681281613</v>
       </c>
       <c r="N14" t="n">
-        <v>453.3197218150999</v>
+        <v>453.3197218150998</v>
       </c>
       <c r="O14" t="n">
-        <v>381.4626643702567</v>
+        <v>381.4626643702566</v>
       </c>
       <c r="P14" t="n">
         <v>288.2576462984487</v>
       </c>
       <c r="Q14" t="n">
-        <v>138.5104960466976</v>
+        <v>138.5104960466975</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>70.40534134273582</v>
       </c>
       <c r="K15" t="n">
-        <v>248.2184001629003</v>
+        <v>229.2086996061998</v>
       </c>
       <c r="L15" t="n">
-        <v>395.2245205299613</v>
+        <v>395.2245205299612</v>
       </c>
       <c r="M15" t="n">
         <v>514.5419032905515</v>
@@ -35743,10 +35743,10 @@
         <v>429.0814793495699</v>
       </c>
       <c r="P15" t="n">
-        <v>212.1462185984226</v>
+        <v>327.7832499334201</v>
       </c>
       <c r="Q15" t="n">
-        <v>167.0326721210326</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>50.11136289232033</v>
+        <v>50.11136289232032</v>
       </c>
       <c r="L16" t="n">
         <v>120.492579780375</v>
@@ -35822,7 +35822,7 @@
         <v>113.507487571651</v>
       </c>
       <c r="P16" t="n">
-        <v>73.66821272853396</v>
+        <v>73.66821272853394</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35892,19 +35892,19 @@
         <v>400.9729937182839</v>
       </c>
       <c r="M17" t="n">
-        <v>461.5256681281614</v>
+        <v>461.5256681281613</v>
       </c>
       <c r="N17" t="n">
-        <v>453.3197218150999</v>
+        <v>453.3197218150998</v>
       </c>
       <c r="O17" t="n">
-        <v>381.4626643702567</v>
+        <v>381.4626643702566</v>
       </c>
       <c r="P17" t="n">
         <v>288.2576462984487</v>
       </c>
       <c r="Q17" t="n">
-        <v>138.5104960466976</v>
+        <v>138.5104960466975</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>51.39564078603522</v>
+        <v>70.40534134273582</v>
       </c>
       <c r="K18" t="n">
-        <v>248.2184001629003</v>
+        <v>62.17602748516736</v>
       </c>
       <c r="L18" t="n">
-        <v>395.2245205299613</v>
+        <v>395.2245205299612</v>
       </c>
       <c r="M18" t="n">
         <v>514.5419032905515</v>
@@ -35983,7 +35983,7 @@
         <v>327.7832499334201</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>167.0326721210326</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>50.11136289232033</v>
+        <v>50.11136289232032</v>
       </c>
       <c r="L19" t="n">
         <v>120.492579780375</v>
@@ -36059,7 +36059,7 @@
         <v>113.507487571651</v>
       </c>
       <c r="P19" t="n">
-        <v>73.66821272853396</v>
+        <v>73.66821272853394</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>70.40534134273582</v>
       </c>
       <c r="K21" t="n">
         <v>248.2184001629003</v>
@@ -36214,13 +36214,13 @@
         <v>543.714571154376</v>
       </c>
       <c r="O21" t="n">
-        <v>429.0814793495699</v>
+        <v>243.0391066718371</v>
       </c>
       <c r="P21" t="n">
         <v>327.7832499334201</v>
       </c>
       <c r="Q21" t="n">
-        <v>51.39564078603548</v>
+        <v>167.0326721210326</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>70.40534134273582</v>
       </c>
       <c r="K24" t="n">
-        <v>248.2184001629003</v>
+        <v>62.17602748516736</v>
       </c>
       <c r="L24" t="n">
         <v>395.2245205299612</v>
@@ -36457,7 +36457,7 @@
         <v>327.7832499334201</v>
       </c>
       <c r="Q24" t="n">
-        <v>51.39564078603548</v>
+        <v>167.0326721210326</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>70.40534134273582</v>
       </c>
       <c r="K27" t="n">
         <v>248.2184001629003</v>
@@ -36685,7 +36685,7 @@
         <v>514.5419032905515</v>
       </c>
       <c r="N27" t="n">
-        <v>543.714571154376</v>
+        <v>357.6721984766432</v>
       </c>
       <c r="O27" t="n">
         <v>429.0814793495699</v>
@@ -36694,7 +36694,7 @@
         <v>327.7832499334201</v>
       </c>
       <c r="Q27" t="n">
-        <v>51.39564078603548</v>
+        <v>167.0326721210326</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>70.40534134273582</v>
       </c>
       <c r="K30" t="n">
         <v>248.2184001629003</v>
@@ -36922,7 +36922,7 @@
         <v>514.5419032905515</v>
       </c>
       <c r="N30" t="n">
-        <v>428.0775398193789</v>
+        <v>357.6721984766432</v>
       </c>
       <c r="O30" t="n">
         <v>429.0814793495699</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>51.3956407860353</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>248.2184001629003</v>
+        <v>132.5813688279032</v>
       </c>
       <c r="L36" t="n">
         <v>395.2245205299612</v>
@@ -37405,7 +37405,7 @@
         <v>327.7832499334201</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>167.0326721210326</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>51.3956407860353</v>
+        <v>70.40534134273582</v>
       </c>
       <c r="K39" t="n">
         <v>248.2184001629003</v>
@@ -37633,7 +37633,7 @@
         <v>514.5419032905515</v>
       </c>
       <c r="N39" t="n">
-        <v>543.714571154376</v>
+        <v>357.6721984766432</v>
       </c>
       <c r="O39" t="n">
         <v>429.0814793495699</v>
@@ -37642,7 +37642,7 @@
         <v>327.7832499334201</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>167.0326721210326</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>105.0124396425416</v>
+        <v>105.0124396425415</v>
       </c>
       <c r="K41" t="n">
         <v>280.8981351873249</v>
@@ -37788,19 +37788,19 @@
         <v>400.9729937182839</v>
       </c>
       <c r="M41" t="n">
-        <v>461.5256681281614</v>
+        <v>461.5256681281613</v>
       </c>
       <c r="N41" t="n">
-        <v>453.3197218150999</v>
+        <v>453.3197218150998</v>
       </c>
       <c r="O41" t="n">
-        <v>381.4626643702567</v>
+        <v>381.4626643702566</v>
       </c>
       <c r="P41" t="n">
         <v>288.2576462984487</v>
       </c>
       <c r="Q41" t="n">
-        <v>138.5104960466976</v>
+        <v>138.5104960466975</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>70.40534134273584</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>248.2184001629003</v>
+        <v>132.5813688279032</v>
       </c>
       <c r="L42" t="n">
-        <v>395.2245205299613</v>
+        <v>395.2245205299612</v>
       </c>
       <c r="M42" t="n">
         <v>514.5419032905515</v>
       </c>
       <c r="N42" t="n">
-        <v>357.6721984766434</v>
+        <v>543.714571154376</v>
       </c>
       <c r="O42" t="n">
         <v>429.0814793495699</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>50.11136289232033</v>
+        <v>50.11136289232032</v>
       </c>
       <c r="L43" t="n">
         <v>120.492579780375</v>
@@ -37955,7 +37955,7 @@
         <v>113.507487571651</v>
       </c>
       <c r="P43" t="n">
-        <v>73.66821272853396</v>
+        <v>73.66821272853394</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>105.0124396425418</v>
+        <v>105.0124396425416</v>
       </c>
       <c r="K44" t="n">
         <v>280.8981351873249</v>
@@ -38025,19 +38025,19 @@
         <v>400.9729937182839</v>
       </c>
       <c r="M44" t="n">
-        <v>461.5256681281614</v>
+        <v>461.5256681281613</v>
       </c>
       <c r="N44" t="n">
-        <v>453.3197218150999</v>
+        <v>453.3197218150998</v>
       </c>
       <c r="O44" t="n">
-        <v>381.4626643702567</v>
+        <v>381.4626643702566</v>
       </c>
       <c r="P44" t="n">
         <v>288.2576462984487</v>
       </c>
       <c r="Q44" t="n">
-        <v>138.5104960466976</v>
+        <v>138.5104960466975</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,19 +38095,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>70.40534134273584</v>
+        <v>70.40534134273582</v>
       </c>
       <c r="K45" t="n">
         <v>248.2184001629003</v>
       </c>
       <c r="L45" t="n">
-        <v>395.2245205299613</v>
+        <v>395.2245205299612</v>
       </c>
       <c r="M45" t="n">
         <v>514.5419032905515</v>
       </c>
       <c r="N45" t="n">
-        <v>357.6721984766434</v>
+        <v>357.6721984766432</v>
       </c>
       <c r="O45" t="n">
         <v>429.0814793495699</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>50.11136289232033</v>
+        <v>50.11136289232032</v>
       </c>
       <c r="L46" t="n">
         <v>120.492579780375</v>
@@ -38192,7 +38192,7 @@
         <v>113.507487571651</v>
       </c>
       <c r="P46" t="n">
-        <v>73.66821272853396</v>
+        <v>73.66821272853394</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
